--- a/data-raw/metadata/camp_environmental_metadata.xlsx
+++ b/data-raw/metadata/camp_environmental_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2CC41F-94B5-3641-842A-2D68E4BB246F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FAF14E-2844-6C48-9591-C9A480A343C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68640" yWindow="-12120" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -526,22 +526,26 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -842,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z958"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:M21"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -931,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1503,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -28029,7 +28033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z931"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data-raw/metadata/camp_environmental_metadata.xlsx
+++ b/data-raw/metadata/camp_environmental_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FAF14E-2844-6C48-9591-C9A480A343C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3C5B0C-6D4C-784B-B724-A9B1E6616027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="162">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -510,6 +510,9 @@
   <si>
     <t>2022-05-18 02:30:25</t>
   </si>
+  <si>
+    <t>Knights Landing RST Program</t>
+  </si>
 </sst>
 </file>
 
@@ -847,7 +850,7 @@
   <dimension ref="A1:Z958"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -935,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -28031,9 +28034,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z931"/>
+  <dimension ref="A1:Z932"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28078,14 +28083,14 @@
       <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
-        <v>3000</v>
+      <c r="A2" s="15">
+        <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>64</v>
+      <c r="B2" s="15" t="s">
+        <v>161</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>57</v>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -28113,10 +28118,10 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
-        <v>44000</v>
+        <v>3000</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>57</v>
@@ -28124,12 +28129,12 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="15"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -28147,10 +28152,10 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
-        <v>52000</v>
+        <v>44000</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>57</v>
@@ -28158,7 +28163,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
@@ -28181,10 +28186,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>57</v>
@@ -28192,7 +28197,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
@@ -28215,10 +28220,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
-        <v>5000</v>
+        <v>51000</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>57</v>
@@ -28226,7 +28231,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
@@ -28249,10 +28254,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
-        <v>46000</v>
+        <v>5000</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>57</v>
@@ -28260,7 +28265,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -28281,12 +28286,12 @@
       <c r="Y7" s="16"/>
       <c r="Z7" s="16"/>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
-        <v>4000</v>
+        <v>46000</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>57</v>
@@ -28315,12 +28320,12 @@
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>45000</v>
+        <v>4000</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>57</v>
@@ -28328,7 +28333,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -28351,10 +28356,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>252</v>
+        <v>45000</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>57</v>
@@ -28362,7 +28367,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
@@ -28385,10 +28390,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>57</v>
@@ -28419,10 +28424,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>57</v>
@@ -28453,10 +28458,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <v>53000</v>
+        <v>255</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>57</v>
@@ -28464,7 +28469,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -28487,10 +28492,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
-        <v>54000</v>
+        <v>53000</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>57</v>
@@ -28521,10 +28526,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>57</v>
@@ -28555,10 +28560,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
-        <v>56000</v>
+        <v>55000</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>57</v>
@@ -28589,10 +28594,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
-        <v>50000</v>
+        <v>56000</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>57</v>
@@ -28623,10 +28628,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
-        <v>7000</v>
+        <v>50000</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>57</v>
@@ -28657,10 +28662,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>57</v>
@@ -28691,10 +28696,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
-        <v>43000</v>
+        <v>2000</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>57</v>
@@ -28725,10 +28730,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
-        <v>6000</v>
+        <v>43000</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>57</v>
@@ -28759,10 +28764,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
-        <v>47000</v>
+        <v>6000</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>57</v>
@@ -28793,10 +28798,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
-        <v>90000</v>
+        <v>47000</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>57</v>
@@ -28827,10 +28832,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
-        <v>253</v>
+        <v>90000</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>57</v>
@@ -28861,13 +28866,13 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
-        <v>2001</v>
+        <v>253</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -28895,10 +28900,10 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
-        <v>44018</v>
+        <v>2001</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>59</v>
@@ -28929,10 +28934,10 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
-        <v>44007</v>
+        <v>44018</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>59</v>
@@ -28963,10 +28968,10 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
-        <v>44017</v>
+        <v>44007</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>59</v>
@@ -28997,10 +29002,10 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
-        <v>44016</v>
+        <v>44017</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>59</v>
@@ -29031,10 +29036,10 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
-        <v>44013</v>
+        <v>44016</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>59</v>
@@ -29065,10 +29070,10 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
-        <v>3001</v>
+        <v>44013</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>59</v>
@@ -29099,10 +29104,10 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>59</v>
@@ -29133,10 +29138,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
-        <v>52003</v>
+        <v>3002</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>59</v>
@@ -29167,10 +29172,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
-        <v>51002</v>
+        <v>52003</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>59</v>
@@ -29201,10 +29206,10 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
-        <v>51003</v>
+        <v>51002</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>59</v>
@@ -29235,10 +29240,10 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
-        <v>52001</v>
+        <v>51003</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>59</v>
@@ -29269,10 +29274,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
-        <v>52002</v>
+        <v>52001</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>59</v>
@@ -29303,10 +29308,10 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
-        <v>52004</v>
+        <v>52002</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>59</v>
@@ -29337,10 +29342,10 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
-        <v>90001</v>
+        <v>52004</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>59</v>
@@ -29371,10 +29376,10 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
-        <v>46003</v>
+        <v>90001</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>59</v>
@@ -29405,10 +29410,10 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>59</v>
@@ -29439,10 +29444,10 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
-        <v>46004</v>
+        <v>46001</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>59</v>
@@ -29473,10 +29478,10 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
-        <v>5001</v>
+        <v>46004</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>59</v>
@@ -29507,10 +29512,10 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>59</v>
@@ -29541,10 +29546,10 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>59</v>
@@ -29575,10 +29580,10 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
-        <v>4001</v>
+        <v>5002</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>59</v>
@@ -29609,10 +29614,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>59</v>
@@ -29643,10 +29648,10 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
-        <v>44010</v>
+        <v>4002</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>59</v>
@@ -29677,10 +29682,10 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
-        <v>51001</v>
+        <v>44010</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>59</v>
@@ -29711,10 +29716,10 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
-        <v>46002</v>
+        <v>51001</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>59</v>
@@ -29745,10 +29750,10 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
-        <v>43000</v>
+        <v>46002</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>59</v>
@@ -29779,7 +29784,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
-        <v>44000</v>
+        <v>43000</v>
       </c>
       <c r="B52" s="16" t="s">
         <v>112</v>
@@ -29813,7 +29818,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
-        <v>45000</v>
+        <v>44000</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>112</v>
@@ -29847,7 +29852,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
-        <v>46000</v>
+        <v>45000</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>112</v>
@@ -29881,7 +29886,7 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
-        <v>47000</v>
+        <v>46000</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>112</v>
@@ -29915,7 +29920,7 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
-        <v>50000</v>
+        <v>47000</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>112</v>
@@ -29949,7 +29954,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
-        <v>51000</v>
+        <v>50000</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>112</v>
@@ -29983,7 +29988,7 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
-        <v>52000</v>
+        <v>51000</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>112</v>
@@ -30017,7 +30022,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
-        <v>53000</v>
+        <v>52000</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>112</v>
@@ -30051,7 +30056,7 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
-        <v>54000</v>
+        <v>53000</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>112</v>
@@ -30085,7 +30090,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
-        <v>55000</v>
+        <v>54000</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>112</v>
@@ -30119,7 +30124,7 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
-        <v>56000</v>
+        <v>55000</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>112</v>
@@ -30153,7 +30158,7 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
-        <v>90000</v>
+        <v>56000</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>112</v>
@@ -30187,10 +30192,10 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
-        <v>44001</v>
+        <v>90000</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>59</v>
@@ -30221,10 +30226,10 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>59</v>
@@ -30255,10 +30260,10 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>59</v>
@@ -30289,10 +30294,10 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>59</v>
@@ -30323,10 +30328,10 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
-        <v>47002</v>
+        <v>44004</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>59</v>
@@ -30357,10 +30362,10 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
-        <v>47001</v>
+        <v>47002</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>59</v>
@@ -30391,10 +30396,10 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
-        <v>44009</v>
+        <v>47001</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>59</v>
@@ -30425,10 +30430,10 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
-        <v>44006</v>
+        <v>44009</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>59</v>
@@ -30459,10 +30464,10 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>59</v>
@@ -30493,10 +30498,10 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
-        <v>7002</v>
+        <v>44008</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>59</v>
@@ -30527,10 +30532,10 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
-        <v>7003</v>
+        <v>7002</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>59</v>
@@ -30561,10 +30566,10 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
-        <v>44012</v>
+        <v>7003</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>59</v>
@@ -30595,10 +30600,10 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>59</v>
@@ -30629,10 +30634,10 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
-        <v>44011</v>
+        <v>44014</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>59</v>
@@ -30663,10 +30668,10 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
-        <v>44015</v>
+        <v>44011</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>59</v>
@@ -30697,10 +30702,10 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
-        <v>44005</v>
+        <v>44015</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>59</v>
@@ -30731,10 +30736,10 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
-        <v>43001</v>
+        <v>44005</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>59</v>
@@ -30747,7 +30752,7 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="15"/>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
@@ -30765,10 +30770,10 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
-        <v>2004</v>
+        <v>43001</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>59</v>
@@ -30799,10 +30804,10 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>59</v>
@@ -30833,10 +30838,10 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>59</v>
@@ -30867,10 +30872,10 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>59</v>
@@ -30901,10 +30906,10 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
-        <v>6002</v>
+        <v>2005</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>59</v>
@@ -30935,10 +30940,10 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>59</v>
@@ -30969,13 +30974,13 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
-        <v>2</v>
+        <v>6003</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
@@ -31003,10 +31008,10 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>55</v>
@@ -31037,10 +31042,10 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>55</v>
@@ -31071,10 +31076,10 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
-        <v>252</v>
+        <v>4</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>55</v>
@@ -31105,10 +31110,10 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>55</v>
@@ -31139,10 +31144,10 @@
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>55</v>
@@ -31173,10 +31178,10 @@
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>55</v>
@@ -31207,10 +31212,10 @@
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>55</v>
@@ -31241,10 +31246,10 @@
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
-        <v>6</v>
+        <v>254</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>55</v>
@@ -31275,10 +31280,10 @@
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>55</v>
@@ -31309,10 +31314,10 @@
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>55</v>
@@ -31343,10 +31348,10 @@
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>55</v>
@@ -31377,13 +31382,13 @@
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
@@ -31411,10 +31416,10 @@
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100" s="15" t="s">
         <v>29</v>
@@ -31445,10 +31450,10 @@
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>29</v>
@@ -31479,13 +31484,13 @@
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
@@ -31513,10 +31518,10 @@
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C103" s="15" t="s">
         <v>31</v>
@@ -31547,10 +31552,10 @@
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" s="15" t="s">
         <v>31</v>
@@ -31581,10 +31586,10 @@
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="C105" s="15" t="s">
         <v>31</v>
@@ -31615,13 +31620,13 @@
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
-        <v>8</v>
+        <v>251</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -31649,10 +31654,10 @@
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
-        <v>251</v>
+        <v>8</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="C107" s="15" t="s">
         <v>35</v>
@@ -31683,13 +31688,13 @@
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -31717,13 +31722,13 @@
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
@@ -31751,10 +31756,10 @@
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C110" s="15" t="s">
         <v>40</v>
@@ -31785,10 +31790,10 @@
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C111" s="15" t="s">
         <v>40</v>
@@ -31819,10 +31824,10 @@
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C112" s="15" t="s">
         <v>40</v>
@@ -31853,10 +31858,10 @@
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
-        <v>251</v>
+        <v>14</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>40</v>
@@ -31887,13 +31892,13 @@
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
@@ -31921,10 +31926,10 @@
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C115" s="15" t="s">
         <v>39</v>
@@ -31955,10 +31960,10 @@
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="C116" s="15" t="s">
         <v>39</v>
@@ -31989,13 +31994,13 @@
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
-        <v>2</v>
+        <v>251</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
@@ -32023,10 +32028,10 @@
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
-        <v>251</v>
+        <v>2</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C118" s="15" t="s">
         <v>43</v>
@@ -32057,13 +32062,13 @@
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
@@ -32091,10 +32096,10 @@
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
-        <v>251</v>
+        <v>25</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>44</v>
@@ -32125,13 +32130,13 @@
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
@@ -32159,10 +32164,10 @@
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>48</v>
@@ -32193,10 +32198,10 @@
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>48</v>
@@ -32227,10 +32232,10 @@
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>48</v>
@@ -32261,13 +32266,13 @@
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
@@ -32295,10 +32300,10 @@
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
-        <v>251</v>
+        <v>20</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="C126" s="15" t="s">
         <v>47</v>
@@ -32328,9 +32333,15 @@
       <c r="Z126" s="16"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
+      <c r="A127" s="16">
+        <v>251</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
@@ -54867,6 +54878,34 @@
       <c r="Y931" s="16"/>
       <c r="Z931" s="16"/>
     </row>
+    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A932" s="15"/>
+      <c r="B932" s="15"/>
+      <c r="C932" s="15"/>
+      <c r="D932" s="16"/>
+      <c r="E932" s="16"/>
+      <c r="F932" s="16"/>
+      <c r="G932" s="16"/>
+      <c r="H932" s="16"/>
+      <c r="I932" s="16"/>
+      <c r="J932" s="16"/>
+      <c r="K932" s="16"/>
+      <c r="L932" s="16"/>
+      <c r="M932" s="16"/>
+      <c r="N932" s="16"/>
+      <c r="O932" s="16"/>
+      <c r="P932" s="16"/>
+      <c r="Q932" s="16"/>
+      <c r="R932" s="16"/>
+      <c r="S932" s="16"/>
+      <c r="T932" s="16"/>
+      <c r="U932" s="16"/>
+      <c r="V932" s="16"/>
+      <c r="W932" s="16"/>
+      <c r="X932" s="16"/>
+      <c r="Y932" s="16"/>
+      <c r="Z932" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/data-raw/metadata/camp_environmental_metadata.xlsx
+++ b/data-raw/metadata/camp_environmental_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3C5B0C-6D4C-784B-B724-A9B1E6616027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F8CA86-170C-8043-B962-0CA85D333872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -115,28 +115,10 @@
     <t>real</t>
   </si>
   <si>
-    <t>dischargeUnitID</t>
-  </si>
-  <si>
-    <t>Code for the unit of measure</t>
-  </si>
-  <si>
-    <t>dischargeSampleGearID</t>
-  </si>
-  <si>
-    <t>Code for the sample gear used</t>
-  </si>
-  <si>
     <t>waterVel</t>
   </si>
   <si>
     <t>Instantaneous water velocity measured</t>
-  </si>
-  <si>
-    <t>waterVelUnitID</t>
-  </si>
-  <si>
-    <t>waterVelSampleGearID</t>
   </si>
   <si>
     <t>waterTemp</t>
@@ -145,34 +127,16 @@
     <t>Instantaneous water temperature measured</t>
   </si>
   <si>
-    <t>waterTempUnitID</t>
-  </si>
-  <si>
-    <t>waterTempSampleGearID</t>
-  </si>
-  <si>
     <t>lightPenetration</t>
   </si>
   <si>
     <t>Instantaneous light penetration measured</t>
   </si>
   <si>
-    <t>lightPenetrationUnitID</t>
-  </si>
-  <si>
-    <t>lightPenetrationSampleGearID</t>
-  </si>
-  <si>
     <t>turbidity</t>
   </si>
   <si>
     <t>Instantaneous turbidity measurement</t>
-  </si>
-  <si>
-    <t>turbidityUnitID</t>
-  </si>
-  <si>
-    <t>turbiditySampleGearID</t>
   </si>
   <si>
     <t>visitTime</t>
@@ -203,9 +167,6 @@
   </si>
   <si>
     <t>Code for name of the sampling site</t>
-  </si>
-  <si>
-    <t>trapPositionID</t>
   </si>
   <si>
     <t>Code for position of trap within the site</t>
@@ -289,151 +250,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>#Steep Riffle_RST</t>
-  </si>
-  <si>
-    <t>Below Weir Riffle</t>
-  </si>
-  <si>
-    <t>Eye Pool Left &amp; Right RM 60.5</t>
-  </si>
-  <si>
-    <t>Eye Pool Left RM 60.5</t>
-  </si>
-  <si>
-    <t>Eye Pool Right RM60.5</t>
-  </si>
-  <si>
-    <t>Eye Pool RM 60.5</t>
-  </si>
-  <si>
-    <t>Eye riffle_north</t>
-  </si>
-  <si>
-    <t>Eye riffle_Side Channel</t>
-  </si>
-  <si>
-    <t>Gateway Main 400' Up River</t>
-  </si>
-  <si>
-    <t>Gateway release boxes</t>
-  </si>
-  <si>
-    <t>Gateway release_RL &amp; RR</t>
-  </si>
-  <si>
-    <t>Gateway_main1</t>
-  </si>
-  <si>
-    <t>Gateway_Rootball</t>
-  </si>
-  <si>
-    <t>Gateway_Rootball_River_Left</t>
-  </si>
-  <si>
-    <t>Gray's Beach</t>
-  </si>
-  <si>
-    <t>half mile above trap RM</t>
-  </si>
-  <si>
-    <t>Herringer Release boxes</t>
-  </si>
-  <si>
-    <t>Herringer release_ RL &amp; RR</t>
-  </si>
-  <si>
-    <t>Herringer_east</t>
-  </si>
-  <si>
-    <t>Herringer_Upper_west</t>
-  </si>
-  <si>
-    <t>Herringer_west</t>
-  </si>
-  <si>
-    <t>Live Oak_west</t>
-  </si>
-  <si>
-    <t>Lower Robinson RM 61.4</t>
-  </si>
-  <si>
-    <t>next to Gateway release boxes</t>
-  </si>
-  <si>
-    <t>next to Herringer Release boxes</t>
-  </si>
-  <si>
     <t>Not applicable (n/a)</t>
-  </si>
-  <si>
-    <t>Release at river left</t>
-  </si>
-  <si>
-    <t>Release river left and right</t>
-  </si>
-  <si>
-    <t>Release river middle</t>
-  </si>
-  <si>
-    <t>Release river right</t>
-  </si>
-  <si>
-    <t>release_100m above falls</t>
-  </si>
-  <si>
-    <t>release_below falls</t>
-  </si>
-  <si>
-    <t>Robinson Main RM 61.6</t>
-  </si>
-  <si>
-    <t>Robinson Side &amp; Main RM 61.6</t>
-  </si>
-  <si>
-    <t>Robinson Side RM 61.6</t>
-  </si>
-  <si>
-    <t>Shawns_east</t>
-  </si>
-  <si>
-    <t>Shawns_west</t>
-  </si>
-  <si>
-    <t>Steep Pool Left Middle Right RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep Pool Left RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep Pool Right &amp; Left RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep Pool Right RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep Pool RM 60.9</t>
-  </si>
-  <si>
-    <t>Steep release_RR &amp; RL</t>
-  </si>
-  <si>
-    <t>Steep Riffle_10' ext</t>
-  </si>
-  <si>
-    <t>Steep Riffle_100' below</t>
-  </si>
-  <si>
-    <t>Steep Riffle_Opposite RST</t>
-  </si>
-  <si>
-    <t>Steep Side Channel</t>
-  </si>
-  <si>
-    <t>Sunset East bank</t>
-  </si>
-  <si>
-    <t>Sunset West bank</t>
   </si>
   <si>
     <t>Continue trapping</t>
@@ -460,48 +277,6 @@
     <t>Unplanned restart</t>
   </si>
   <si>
-    <t>cubic feet/second (cfs)</t>
-  </si>
-  <si>
-    <t>cubic meters/second (m3/sec)</t>
-  </si>
-  <si>
-    <t>Gauging station (non-USGS)</t>
-  </si>
-  <si>
-    <t>Staff gauge</t>
-  </si>
-  <si>
-    <t>USGS gauging station</t>
-  </si>
-  <si>
-    <t>feet/second (ft/sec)</t>
-  </si>
-  <si>
-    <t>Electronic meter</t>
-  </si>
-  <si>
-    <t>Analog hand-held thermometer</t>
-  </si>
-  <si>
-    <t>Data logger without probe</t>
-  </si>
-  <si>
-    <t>°F</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>meter (m)</t>
-  </si>
-  <si>
-    <t>Secchi disk</t>
-  </si>
-  <si>
-    <t>nephelometric turbidity units (NTU)</t>
-  </si>
-  <si>
     <t>see unit column</t>
   </si>
   <si>
@@ -512,6 +287,79 @@
   </si>
   <si>
     <t>Knights Landing RST Program</t>
+  </si>
+  <si>
+    <t>trapPosition</t>
+  </si>
+  <si>
+    <t>dischargeUnit</t>
+  </si>
+  <si>
+    <t>dischargeSampleGear</t>
+  </si>
+  <si>
+    <t>waterVelUnit</t>
+  </si>
+  <si>
+    <t>waterVelSampleGear</t>
+  </si>
+  <si>
+    <t>waterTempUnit</t>
+  </si>
+  <si>
+    <t>waterTempSampleGear</t>
+  </si>
+  <si>
+    <t>lightPenetrationUnit</t>
+  </si>
+  <si>
+    <t>lightPenetrationSampleGear</t>
+  </si>
+  <si>
+    <t>turbidityUnit</t>
+  </si>
+  <si>
+    <t>turbiditySampleGear</t>
+  </si>
+  <si>
+    <t>Unit of measure. Levels = c("cubic feet/second (cfs)", NA, "Not recorded", "centimeter (cm)", 
+"nephelometric turbidity units (NTU)", "feet/second (ft/sec)", 
+"cubic meters/second (m3/sec)")</t>
+  </si>
+  <si>
+    <t>The sample gear used. Levels = c("Gauging station (non-USGS)", NA, "Electronic meter", "Electronic depth finder", 
+"Not recorded")</t>
+  </si>
+  <si>
+    <t>Unit of measure. Levels = c("feet/second (ft/sec)", NA, "Not recorded", "cubic feet/second (cfs)", 
+"meters/second (m/sec)", "meter (m)")</t>
+  </si>
+  <si>
+    <t>Unit of measure. Levels = c(NA, "Not recorded", "feet/second (ft/sec)", "C")</t>
+  </si>
+  <si>
+    <t>Unit of measure. Levels = c(NA, "Not recorded", "percent (%)", "centimeter (cm)")</t>
+  </si>
+  <si>
+    <t>Unit of measure. Levels = c("nephelometric turbidity units (NTU)", NA, "Not recorded", 
+"meters/second (m/sec)")</t>
+  </si>
+  <si>
+    <t>The sample gear used. Levels = c("Electronic meter", NA, "Not recorded", "Electronic depth finder"
+)</t>
+  </si>
+  <si>
+    <t>The sample gear used. Levels = c("Analog hand-held thermometer", NA, "Not recorded", "Electronic depth finder", 
+"Electronic meter", "Gauging station (non-USGS)", "Secchi disk"
+)</t>
+  </si>
+  <si>
+    <t>The sample gear used. Levels = c("Secchi disk", NA, "Not recorded", "Electronic meter", "Electronic depth finder", 
+"Gauging station (non-USGS)")</t>
+  </si>
+  <si>
+    <t>The sample gear used. Levels = c("Electronic meter", NA, "Not recorded", "Electronic depth finder", 
+"Analog hand-held thermometer", "Gauging station (non-USGS)")</t>
   </si>
 </sst>
 </file>
@@ -847,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z958"/>
+  <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1058,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>28</v>
@@ -1094,22 +942,32 @@
         <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5431</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1132,22 +990,32 @@
         <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="M7" s="3">
+        <v>78</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1182,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>28</v>
@@ -1191,10 +1059,10 @@
       <c r="J8" s="3"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M8" s="3">
-        <v>5431</v>
+        <v>214</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1215,25 +1083,35 @@
         <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1513</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1250,28 +1128,34 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
+      <c r="B10" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1288,37 +1172,33 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
+      <c r="B11" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="6" t="s">
+        <v>40</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>158</v>
+      <c r="K11" s="2"/>
+      <c r="L11" s="17" t="s">
+        <v>84</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="M11" s="3">
-        <v>78</v>
+      <c r="M11" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1336,10 +1216,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
@@ -1374,10 +1254,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1392,9 +1272,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="3"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1412,38 +1292,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="M14" s="3">
-        <v>214</v>
-      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1460,10 +1330,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1472,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1498,10 +1368,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1536,38 +1406,28 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="3">
-        <v>0.42</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1513</v>
-      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1584,10 +1444,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1596,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1622,10 +1482,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1634,7 +1494,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1660,34 +1520,28 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>50</v>
+      <c r="B20" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1704,34 +1558,28 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>54</v>
+      <c r="B21" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="J21" s="3"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>160</v>
-      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1748,10 +1596,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1760,7 +1608,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -1786,10 +1634,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -1798,15 +1646,15 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -1824,10 +1672,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -1836,15 +1684,15 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -1861,7 +1709,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1889,7 +1737,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -1917,7 +1765,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -1945,7 +1793,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -1973,7 +1821,7 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
@@ -2001,7 +1849,7 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -2029,7 +1877,7 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2"/>
@@ -2057,7 +1905,7 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -27732,298 +27580,18 @@
       <c r="Y948" s="1"/>
       <c r="Z948" s="1"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A949" s="1"/>
-      <c r="B949" s="1"/>
-      <c r="C949" s="1"/>
-      <c r="D949" s="2"/>
-      <c r="E949" s="1"/>
-      <c r="F949" s="3"/>
-      <c r="G949" s="3"/>
-      <c r="H949" s="3"/>
-      <c r="I949" s="2"/>
-      <c r="J949" s="3"/>
-      <c r="K949" s="2"/>
-      <c r="L949" s="3"/>
-      <c r="M949" s="3"/>
-      <c r="N949" s="1"/>
-      <c r="O949" s="1"/>
-      <c r="P949" s="1"/>
-      <c r="Q949" s="1"/>
-      <c r="R949" s="1"/>
-      <c r="S949" s="1"/>
-      <c r="T949" s="1"/>
-      <c r="U949" s="1"/>
-      <c r="V949" s="1"/>
-      <c r="W949" s="1"/>
-      <c r="X949" s="1"/>
-      <c r="Y949" s="1"/>
-      <c r="Z949" s="1"/>
-    </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A950" s="1"/>
-      <c r="B950" s="1"/>
-      <c r="C950" s="1"/>
-      <c r="D950" s="2"/>
-      <c r="E950" s="1"/>
-      <c r="F950" s="3"/>
-      <c r="G950" s="3"/>
-      <c r="H950" s="3"/>
-      <c r="I950" s="2"/>
-      <c r="J950" s="3"/>
-      <c r="K950" s="2"/>
-      <c r="L950" s="3"/>
-      <c r="M950" s="3"/>
-      <c r="N950" s="1"/>
-      <c r="O950" s="1"/>
-      <c r="P950" s="1"/>
-      <c r="Q950" s="1"/>
-      <c r="R950" s="1"/>
-      <c r="S950" s="1"/>
-      <c r="T950" s="1"/>
-      <c r="U950" s="1"/>
-      <c r="V950" s="1"/>
-      <c r="W950" s="1"/>
-      <c r="X950" s="1"/>
-      <c r="Y950" s="1"/>
-      <c r="Z950" s="1"/>
-    </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A951" s="1"/>
-      <c r="B951" s="1"/>
-      <c r="C951" s="1"/>
-      <c r="D951" s="2"/>
-      <c r="E951" s="1"/>
-      <c r="F951" s="3"/>
-      <c r="G951" s="3"/>
-      <c r="H951" s="3"/>
-      <c r="I951" s="2"/>
-      <c r="J951" s="3"/>
-      <c r="K951" s="2"/>
-      <c r="L951" s="3"/>
-      <c r="M951" s="3"/>
-      <c r="N951" s="1"/>
-      <c r="O951" s="1"/>
-      <c r="P951" s="1"/>
-      <c r="Q951" s="1"/>
-      <c r="R951" s="1"/>
-      <c r="S951" s="1"/>
-      <c r="T951" s="1"/>
-      <c r="U951" s="1"/>
-      <c r="V951" s="1"/>
-      <c r="W951" s="1"/>
-      <c r="X951" s="1"/>
-      <c r="Y951" s="1"/>
-      <c r="Z951" s="1"/>
-    </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A952" s="1"/>
-      <c r="B952" s="1"/>
-      <c r="C952" s="1"/>
-      <c r="D952" s="2"/>
-      <c r="E952" s="1"/>
-      <c r="F952" s="3"/>
-      <c r="G952" s="3"/>
-      <c r="H952" s="3"/>
-      <c r="I952" s="2"/>
-      <c r="J952" s="3"/>
-      <c r="K952" s="2"/>
-      <c r="L952" s="3"/>
-      <c r="M952" s="3"/>
-      <c r="N952" s="1"/>
-      <c r="O952" s="1"/>
-      <c r="P952" s="1"/>
-      <c r="Q952" s="1"/>
-      <c r="R952" s="1"/>
-      <c r="S952" s="1"/>
-      <c r="T952" s="1"/>
-      <c r="U952" s="1"/>
-      <c r="V952" s="1"/>
-      <c r="W952" s="1"/>
-      <c r="X952" s="1"/>
-      <c r="Y952" s="1"/>
-      <c r="Z952" s="1"/>
-    </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A953" s="1"/>
-      <c r="B953" s="1"/>
-      <c r="C953" s="1"/>
-      <c r="D953" s="2"/>
-      <c r="E953" s="1"/>
-      <c r="F953" s="3"/>
-      <c r="G953" s="3"/>
-      <c r="H953" s="3"/>
-      <c r="I953" s="2"/>
-      <c r="J953" s="3"/>
-      <c r="K953" s="2"/>
-      <c r="L953" s="3"/>
-      <c r="M953" s="3"/>
-      <c r="N953" s="1"/>
-      <c r="O953" s="1"/>
-      <c r="P953" s="1"/>
-      <c r="Q953" s="1"/>
-      <c r="R953" s="1"/>
-      <c r="S953" s="1"/>
-      <c r="T953" s="1"/>
-      <c r="U953" s="1"/>
-      <c r="V953" s="1"/>
-      <c r="W953" s="1"/>
-      <c r="X953" s="1"/>
-      <c r="Y953" s="1"/>
-      <c r="Z953" s="1"/>
-    </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A954" s="1"/>
-      <c r="B954" s="1"/>
-      <c r="C954" s="1"/>
-      <c r="D954" s="2"/>
-      <c r="E954" s="1"/>
-      <c r="F954" s="3"/>
-      <c r="G954" s="3"/>
-      <c r="H954" s="3"/>
-      <c r="I954" s="2"/>
-      <c r="J954" s="3"/>
-      <c r="K954" s="2"/>
-      <c r="L954" s="3"/>
-      <c r="M954" s="3"/>
-      <c r="N954" s="1"/>
-      <c r="O954" s="1"/>
-      <c r="P954" s="1"/>
-      <c r="Q954" s="1"/>
-      <c r="R954" s="1"/>
-      <c r="S954" s="1"/>
-      <c r="T954" s="1"/>
-      <c r="U954" s="1"/>
-      <c r="V954" s="1"/>
-      <c r="W954" s="1"/>
-      <c r="X954" s="1"/>
-      <c r="Y954" s="1"/>
-      <c r="Z954" s="1"/>
-    </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A955" s="1"/>
-      <c r="B955" s="1"/>
-      <c r="C955" s="1"/>
-      <c r="D955" s="2"/>
-      <c r="E955" s="1"/>
-      <c r="F955" s="3"/>
-      <c r="G955" s="3"/>
-      <c r="H955" s="3"/>
-      <c r="I955" s="2"/>
-      <c r="J955" s="3"/>
-      <c r="K955" s="2"/>
-      <c r="L955" s="3"/>
-      <c r="M955" s="3"/>
-      <c r="N955" s="1"/>
-      <c r="O955" s="1"/>
-      <c r="P955" s="1"/>
-      <c r="Q955" s="1"/>
-      <c r="R955" s="1"/>
-      <c r="S955" s="1"/>
-      <c r="T955" s="1"/>
-      <c r="U955" s="1"/>
-      <c r="V955" s="1"/>
-      <c r="W955" s="1"/>
-      <c r="X955" s="1"/>
-      <c r="Y955" s="1"/>
-      <c r="Z955" s="1"/>
-    </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A956" s="1"/>
-      <c r="B956" s="1"/>
-      <c r="C956" s="1"/>
-      <c r="D956" s="2"/>
-      <c r="E956" s="1"/>
-      <c r="F956" s="3"/>
-      <c r="G956" s="3"/>
-      <c r="H956" s="3"/>
-      <c r="I956" s="2"/>
-      <c r="J956" s="3"/>
-      <c r="K956" s="2"/>
-      <c r="L956" s="3"/>
-      <c r="M956" s="3"/>
-      <c r="N956" s="1"/>
-      <c r="O956" s="1"/>
-      <c r="P956" s="1"/>
-      <c r="Q956" s="1"/>
-      <c r="R956" s="1"/>
-      <c r="S956" s="1"/>
-      <c r="T956" s="1"/>
-      <c r="U956" s="1"/>
-      <c r="V956" s="1"/>
-      <c r="W956" s="1"/>
-      <c r="X956" s="1"/>
-      <c r="Y956" s="1"/>
-      <c r="Z956" s="1"/>
-    </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A957" s="1"/>
-      <c r="B957" s="1"/>
-      <c r="C957" s="1"/>
-      <c r="D957" s="2"/>
-      <c r="E957" s="1"/>
-      <c r="F957" s="3"/>
-      <c r="G957" s="3"/>
-      <c r="H957" s="3"/>
-      <c r="I957" s="2"/>
-      <c r="J957" s="3"/>
-      <c r="K957" s="2"/>
-      <c r="L957" s="3"/>
-      <c r="M957" s="3"/>
-      <c r="N957" s="1"/>
-      <c r="O957" s="1"/>
-      <c r="P957" s="1"/>
-      <c r="Q957" s="1"/>
-      <c r="R957" s="1"/>
-      <c r="S957" s="1"/>
-      <c r="T957" s="1"/>
-      <c r="U957" s="1"/>
-      <c r="V957" s="1"/>
-      <c r="W957" s="1"/>
-      <c r="X957" s="1"/>
-      <c r="Y957" s="1"/>
-      <c r="Z957" s="1"/>
-    </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A958" s="1"/>
-      <c r="B958" s="1"/>
-      <c r="C958" s="1"/>
-      <c r="D958" s="2"/>
-      <c r="E958" s="1"/>
-      <c r="F958" s="3"/>
-      <c r="G958" s="3"/>
-      <c r="H958" s="3"/>
-      <c r="I958" s="2"/>
-      <c r="J958" s="3"/>
-      <c r="K958" s="2"/>
-      <c r="L958" s="3"/>
-      <c r="M958" s="3"/>
-      <c r="N958" s="1"/>
-      <c r="O958" s="1"/>
-      <c r="P958" s="1"/>
-      <c r="Q958" s="1"/>
-      <c r="R958" s="1"/>
-      <c r="S958" s="1"/>
-      <c r="T958" s="1"/>
-      <c r="U958" s="1"/>
-      <c r="V958" s="1"/>
-      <c r="W958" s="1"/>
-      <c r="X958" s="1"/>
-      <c r="Y958" s="1"/>
-      <c r="Z958" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E958" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E15 E16:E948" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F958" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F15 F16:F948" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C958" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C15 C16:C948" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H958" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H15 H16:H948" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28034,10 +27602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z932"/>
+  <dimension ref="A1:Z842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28050,13 +27618,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -28087,7 +27655,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -28121,10 +27689,10 @@
         <v>3000</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -28155,10 +27723,10 @@
         <v>44000</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -28189,10 +27757,10 @@
         <v>52000</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -28223,10 +27791,10 @@
         <v>51000</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -28257,10 +27825,10 @@
         <v>5000</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -28291,10 +27859,10 @@
         <v>46000</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -28325,10 +27893,10 @@
         <v>4000</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -28359,10 +27927,10 @@
         <v>45000</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -28393,10 +27961,10 @@
         <v>252</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -28427,10 +27995,10 @@
         <v>251</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -28461,10 +28029,10 @@
         <v>255</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -28495,10 +28063,10 @@
         <v>53000</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -28529,10 +28097,10 @@
         <v>54000</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -28563,10 +28131,10 @@
         <v>55000</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -28597,10 +28165,10 @@
         <v>56000</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -28631,10 +28199,10 @@
         <v>50000</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -28665,10 +28233,10 @@
         <v>7000</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -28699,10 +28267,10 @@
         <v>2000</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -28733,10 +28301,10 @@
         <v>43000</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -28767,10 +28335,10 @@
         <v>6000</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -28801,10 +28369,10 @@
         <v>47000</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -28835,10 +28403,10 @@
         <v>90000</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -28869,10 +28437,10 @@
         <v>253</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -28900,13 +28468,13 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
-        <v>2001</v>
+        <v>2</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -28916,7 +28484,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
@@ -28934,13 +28502,13 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
-        <v>44018</v>
+        <v>5</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
@@ -28950,7 +28518,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
@@ -28968,13 +28536,13 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
-        <v>44007</v>
+        <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -28984,7 +28552,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
-      <c r="L28" s="15"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="16"/>
@@ -29002,13 +28570,13 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
-        <v>44017</v>
+        <v>252</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -29018,7 +28586,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="16"/>
@@ -29036,13 +28604,13 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
-        <v>44016</v>
+        <v>251</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
@@ -29052,7 +28620,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
-      <c r="L30" s="15"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="16"/>
@@ -29070,13 +28638,13 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
-        <v>44013</v>
+        <v>255</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -29086,7 +28654,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
-      <c r="L31" s="15"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="16"/>
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
@@ -29104,13 +28672,13 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
-        <v>3001</v>
+        <v>250</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
@@ -29120,7 +28688,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
-      <c r="L32" s="15"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
@@ -29138,13 +28706,13 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
-        <v>3002</v>
+        <v>254</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
@@ -29154,7 +28722,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
-      <c r="L33" s="15"/>
+      <c r="L33" s="16"/>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="16"/>
@@ -29172,13 +28740,13 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
-        <v>52003</v>
+        <v>6</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -29188,7 +28756,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="15"/>
+      <c r="L34" s="16"/>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
@@ -29206,13 +28774,13 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
-        <v>51002</v>
+        <v>1</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
@@ -29222,7 +28790,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
-      <c r="L35" s="15"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="16"/>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
@@ -29240,13 +28808,13 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
-        <v>51003</v>
+        <v>253</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
@@ -29256,7 +28824,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
-      <c r="L36" s="15"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
@@ -29274,13 +28842,13 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
-        <v>52001</v>
+        <v>3</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -29290,7 +28858,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="16"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="15"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="16"/>
       <c r="N37" s="16"/>
       <c r="O37" s="16"/>
@@ -29307,15 +28875,9 @@
       <c r="Z37" s="16"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
-        <v>52002</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -29324,7 +28886,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="16"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="15"/>
+      <c r="L38" s="16"/>
       <c r="M38" s="16"/>
       <c r="N38" s="16"/>
       <c r="O38" s="16"/>
@@ -29341,15 +28903,9 @@
       <c r="Z38" s="16"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
-        <v>52004</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -29358,7 +28914,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="16"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="15"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
       <c r="O39" s="16"/>
@@ -29375,15 +28931,9 @@
       <c r="Z39" s="16"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
-        <v>90001</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
@@ -29392,7 +28942,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="16"/>
       <c r="K40" s="16"/>
-      <c r="L40" s="15"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
       <c r="O40" s="16"/>
@@ -29409,15 +28959,9 @@
       <c r="Z40" s="16"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
-        <v>46003</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
@@ -29426,7 +28970,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="16"/>
       <c r="K41" s="16"/>
-      <c r="L41" s="15"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
       <c r="O41" s="16"/>
@@ -29443,15 +28987,9 @@
       <c r="Z41" s="16"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
-        <v>46001</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
@@ -29460,7 +28998,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
       <c r="K42" s="16"/>
-      <c r="L42" s="15"/>
+      <c r="L42" s="16"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
       <c r="O42" s="16"/>
@@ -29477,15 +29015,9 @@
       <c r="Z42" s="16"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
-        <v>46004</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -29494,7 +29026,7 @@
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
       <c r="K43" s="16"/>
-      <c r="L43" s="15"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
       <c r="O43" s="16"/>
@@ -29511,15 +29043,9 @@
       <c r="Z43" s="16"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
-        <v>5001</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
@@ -29528,7 +29054,7 @@
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
       <c r="K44" s="16"/>
-      <c r="L44" s="15"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="16"/>
       <c r="N44" s="16"/>
       <c r="O44" s="16"/>
@@ -29545,15 +29071,9 @@
       <c r="Z44" s="16"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16">
-        <v>5003</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
@@ -29562,7 +29082,7 @@
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
       <c r="K45" s="16"/>
-      <c r="L45" s="15"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
@@ -29579,15 +29099,9 @@
       <c r="Z45" s="16"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>5002</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
@@ -29596,7 +29110,7 @@
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
       <c r="K46" s="16"/>
-      <c r="L46" s="15"/>
+      <c r="L46" s="16"/>
       <c r="M46" s="16"/>
       <c r="N46" s="16"/>
       <c r="O46" s="16"/>
@@ -29613,15 +29127,9 @@
       <c r="Z46" s="16"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
-        <v>4001</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -29630,7 +29138,7 @@
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
       <c r="K47" s="16"/>
-      <c r="L47" s="15"/>
+      <c r="L47" s="16"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16"/>
       <c r="O47" s="16"/>
@@ -29647,15 +29155,9 @@
       <c r="Z47" s="16"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16">
-        <v>4002</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -29664,7 +29166,7 @@
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
       <c r="K48" s="16"/>
-      <c r="L48" s="15"/>
+      <c r="L48" s="16"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
       <c r="O48" s="16"/>
@@ -29681,15 +29183,9 @@
       <c r="Z48" s="16"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
-        <v>44010</v>
-      </c>
-      <c r="B49" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
       <c r="D49" s="16"/>
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
@@ -29698,7 +29194,7 @@
       <c r="I49" s="16"/>
       <c r="J49" s="16"/>
       <c r="K49" s="16"/>
-      <c r="L49" s="15"/>
+      <c r="L49" s="16"/>
       <c r="M49" s="16"/>
       <c r="N49" s="16"/>
       <c r="O49" s="16"/>
@@ -29715,15 +29211,9 @@
       <c r="Z49" s="16"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16">
-        <v>51001</v>
-      </c>
-      <c r="B50" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
@@ -29732,7 +29222,7 @@
       <c r="I50" s="16"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
-      <c r="L50" s="15"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="16"/>
       <c r="N50" s="16"/>
       <c r="O50" s="16"/>
@@ -29749,15 +29239,9 @@
       <c r="Z50" s="16"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16">
-        <v>46002</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
       <c r="D51" s="16"/>
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
@@ -29766,7 +29250,7 @@
       <c r="I51" s="16"/>
       <c r="J51" s="16"/>
       <c r="K51" s="16"/>
-      <c r="L51" s="15"/>
+      <c r="L51" s="16"/>
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
       <c r="O51" s="16"/>
@@ -29783,15 +29267,9 @@
       <c r="Z51" s="16"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
-        <v>43000</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
       <c r="D52" s="16"/>
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
@@ -29800,7 +29278,7 @@
       <c r="I52" s="16"/>
       <c r="J52" s="16"/>
       <c r="K52" s="16"/>
-      <c r="L52" s="15"/>
+      <c r="L52" s="16"/>
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
       <c r="O52" s="16"/>
@@ -29817,15 +29295,9 @@
       <c r="Z52" s="16"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16">
-        <v>44000</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
@@ -29834,7 +29306,7 @@
       <c r="I53" s="16"/>
       <c r="J53" s="16"/>
       <c r="K53" s="16"/>
-      <c r="L53" s="15"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
       <c r="O53" s="16"/>
@@ -29851,15 +29323,9 @@
       <c r="Z53" s="16"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16">
-        <v>45000</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
@@ -29868,7 +29334,7 @@
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
       <c r="K54" s="16"/>
-      <c r="L54" s="15"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
       <c r="O54" s="16"/>
@@ -29885,15 +29351,9 @@
       <c r="Z54" s="16"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16">
-        <v>46000</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="16"/>
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
@@ -29902,7 +29362,7 @@
       <c r="I55" s="16"/>
       <c r="J55" s="16"/>
       <c r="K55" s="16"/>
-      <c r="L55" s="15"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
       <c r="O55" s="16"/>
@@ -29919,15 +29379,9 @@
       <c r="Z55" s="16"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16">
-        <v>47000</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
       <c r="D56" s="16"/>
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
@@ -29936,7 +29390,7 @@
       <c r="I56" s="16"/>
       <c r="J56" s="16"/>
       <c r="K56" s="16"/>
-      <c r="L56" s="15"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
@@ -29953,15 +29407,9 @@
       <c r="Z56" s="16"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16">
-        <v>50000</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -29970,7 +29418,7 @@
       <c r="I57" s="16"/>
       <c r="J57" s="16"/>
       <c r="K57" s="16"/>
-      <c r="L57" s="15"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
       <c r="O57" s="16"/>
@@ -29987,15 +29435,9 @@
       <c r="Z57" s="16"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="16">
-        <v>51000</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
@@ -30004,7 +29446,7 @@
       <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
-      <c r="L58" s="15"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
       <c r="O58" s="16"/>
@@ -30021,15 +29463,9 @@
       <c r="Z58" s="16"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16">
-        <v>52000</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
@@ -30038,7 +29474,7 @@
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
-      <c r="L59" s="15"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
       <c r="O59" s="16"/>
@@ -30055,15 +29491,9 @@
       <c r="Z59" s="16"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16">
-        <v>53000</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
@@ -30072,7 +29502,7 @@
       <c r="I60" s="16"/>
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
-      <c r="L60" s="15"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="16"/>
       <c r="N60" s="16"/>
       <c r="O60" s="16"/>
@@ -30089,15 +29519,9 @@
       <c r="Z60" s="16"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16">
-        <v>54000</v>
-      </c>
-      <c r="B61" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
@@ -30106,7 +29530,7 @@
       <c r="I61" s="16"/>
       <c r="J61" s="16"/>
       <c r="K61" s="16"/>
-      <c r="L61" s="15"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="16"/>
       <c r="N61" s="16"/>
       <c r="O61" s="16"/>
@@ -30123,15 +29547,9 @@
       <c r="Z61" s="16"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16">
-        <v>55000</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
@@ -30140,7 +29558,7 @@
       <c r="I62" s="16"/>
       <c r="J62" s="16"/>
       <c r="K62" s="16"/>
-      <c r="L62" s="15"/>
+      <c r="L62" s="16"/>
       <c r="M62" s="16"/>
       <c r="N62" s="16"/>
       <c r="O62" s="16"/>
@@ -30157,15 +29575,9 @@
       <c r="Z62" s="16"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
-        <v>56000</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
@@ -30174,7 +29586,7 @@
       <c r="I63" s="16"/>
       <c r="J63" s="16"/>
       <c r="K63" s="16"/>
-      <c r="L63" s="15"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="16"/>
       <c r="N63" s="16"/>
       <c r="O63" s="16"/>
@@ -30191,15 +29603,9 @@
       <c r="Z63" s="16"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16">
-        <v>90000</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -30208,7 +29614,7 @@
       <c r="I64" s="16"/>
       <c r="J64" s="16"/>
       <c r="K64" s="16"/>
-      <c r="L64" s="15"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="16"/>
       <c r="N64" s="16"/>
       <c r="O64" s="16"/>
@@ -30225,15 +29631,9 @@
       <c r="Z64" s="16"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="16">
-        <v>44001</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
@@ -30242,7 +29642,7 @@
       <c r="I65" s="16"/>
       <c r="J65" s="16"/>
       <c r="K65" s="16"/>
-      <c r="L65" s="15"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="16"/>
       <c r="N65" s="16"/>
       <c r="O65" s="16"/>
@@ -30259,15 +29659,9 @@
       <c r="Z65" s="16"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16">
-        <v>44003</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -30276,7 +29670,7 @@
       <c r="I66" s="16"/>
       <c r="J66" s="16"/>
       <c r="K66" s="16"/>
-      <c r="L66" s="15"/>
+      <c r="L66" s="16"/>
       <c r="M66" s="16"/>
       <c r="N66" s="16"/>
       <c r="O66" s="16"/>
@@ -30293,15 +29687,9 @@
       <c r="Z66" s="16"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16">
-        <v>44002</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
@@ -30310,7 +29698,7 @@
       <c r="I67" s="16"/>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
-      <c r="L67" s="15"/>
+      <c r="L67" s="16"/>
       <c r="M67" s="16"/>
       <c r="N67" s="16"/>
       <c r="O67" s="16"/>
@@ -30327,15 +29715,9 @@
       <c r="Z67" s="16"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16">
-        <v>44004</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
@@ -30344,7 +29726,7 @@
       <c r="I68" s="16"/>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
-      <c r="L68" s="15"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="16"/>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
@@ -30361,15 +29743,9 @@
       <c r="Z68" s="16"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16">
-        <v>47002</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
@@ -30378,7 +29754,7 @@
       <c r="I69" s="16"/>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
-      <c r="L69" s="15"/>
+      <c r="L69" s="16"/>
       <c r="M69" s="16"/>
       <c r="N69" s="16"/>
       <c r="O69" s="16"/>
@@ -30395,15 +29771,9 @@
       <c r="Z69" s="16"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16">
-        <v>47001</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16"/>
@@ -30412,7 +29782,7 @@
       <c r="I70" s="16"/>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
-      <c r="L70" s="15"/>
+      <c r="L70" s="16"/>
       <c r="M70" s="16"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
@@ -30429,15 +29799,9 @@
       <c r="Z70" s="16"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
-        <v>44009</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
@@ -30446,7 +29810,7 @@
       <c r="I71" s="16"/>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
-      <c r="L71" s="15"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="16"/>
       <c r="N71" s="16"/>
       <c r="O71" s="16"/>
@@ -30463,15 +29827,9 @@
       <c r="Z71" s="16"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16">
-        <v>44006</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
@@ -30480,7 +29838,7 @@
       <c r="I72" s="16"/>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
-      <c r="L72" s="15"/>
+      <c r="L72" s="16"/>
       <c r="M72" s="16"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
@@ -30497,15 +29855,9 @@
       <c r="Z72" s="16"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16">
-        <v>44008</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
@@ -30514,7 +29866,7 @@
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
       <c r="K73" s="16"/>
-      <c r="L73" s="15"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="16"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
@@ -30531,15 +29883,9 @@
       <c r="Z73" s="16"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16">
-        <v>7002</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
@@ -30548,7 +29894,7 @@
       <c r="I74" s="16"/>
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
-      <c r="L74" s="15"/>
+      <c r="L74" s="16"/>
       <c r="M74" s="16"/>
       <c r="N74" s="16"/>
       <c r="O74" s="16"/>
@@ -30565,15 +29911,9 @@
       <c r="Z74" s="16"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16">
-        <v>7003</v>
-      </c>
-      <c r="B75" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -30582,7 +29922,7 @@
       <c r="I75" s="16"/>
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
-      <c r="L75" s="15"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="16"/>
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
@@ -30599,15 +29939,9 @@
       <c r="Z75" s="16"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16">
-        <v>44012</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
@@ -30616,7 +29950,7 @@
       <c r="I76" s="16"/>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
-      <c r="L76" s="15"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="16"/>
       <c r="N76" s="16"/>
       <c r="O76" s="16"/>
@@ -30633,15 +29967,9 @@
       <c r="Z76" s="16"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16">
-        <v>44014</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
@@ -30650,7 +29978,7 @@
       <c r="I77" s="16"/>
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
-      <c r="L77" s="15"/>
+      <c r="L77" s="16"/>
       <c r="M77" s="16"/>
       <c r="N77" s="16"/>
       <c r="O77" s="16"/>
@@ -30667,15 +29995,9 @@
       <c r="Z77" s="16"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16">
-        <v>44011</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
@@ -30684,7 +30006,7 @@
       <c r="I78" s="16"/>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
-      <c r="L78" s="15"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="16"/>
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
@@ -30701,15 +30023,9 @@
       <c r="Z78" s="16"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16">
-        <v>44015</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16"/>
@@ -30718,7 +30034,7 @@
       <c r="I79" s="16"/>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
-      <c r="L79" s="15"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="16"/>
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
@@ -30735,15 +30051,9 @@
       <c r="Z79" s="16"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16">
-        <v>44005</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="F80" s="16"/>
@@ -30752,7 +30062,7 @@
       <c r="I80" s="16"/>
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
-      <c r="L80" s="15"/>
+      <c r="L80" s="16"/>
       <c r="M80" s="16"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
@@ -30769,15 +30079,9 @@
       <c r="Z80" s="16"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16">
-        <v>43001</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="16"/>
@@ -30803,15 +30107,9 @@
       <c r="Z81" s="16"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16">
-        <v>2004</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
       <c r="F82" s="16"/>
@@ -30837,15 +30135,9 @@
       <c r="Z82" s="16"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16">
-        <v>2003</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="16"/>
@@ -30871,15 +30163,9 @@
       <c r="Z83" s="16"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16">
-        <v>2002</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
@@ -30905,15 +30191,9 @@
       <c r="Z84" s="16"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16">
-        <v>2005</v>
-      </c>
-      <c r="B85" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
@@ -30939,15 +30219,9 @@
       <c r="Z85" s="16"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16">
-        <v>6002</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A86" s="15"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="16"/>
@@ -30973,15 +30247,9 @@
       <c r="Z86" s="16"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="16">
-        <v>6003</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>59</v>
-      </c>
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="16"/>
@@ -31007,15 +30275,9 @@
       <c r="Z87" s="16"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="16">
-        <v>2</v>
-      </c>
-      <c r="B88" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="16"/>
@@ -31041,15 +30303,9 @@
       <c r="Z88" s="16"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16">
-        <v>5</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="16"/>
@@ -31075,15 +30331,9 @@
       <c r="Z89" s="16"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16">
-        <v>4</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="16"/>
@@ -31109,15 +30359,9 @@
       <c r="Z90" s="16"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16">
-        <v>252</v>
-      </c>
-      <c r="B91" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
@@ -31143,15 +30387,9 @@
       <c r="Z91" s="16"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="16">
-        <v>251</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
@@ -31177,15 +30415,9 @@
       <c r="Z92" s="16"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16">
-        <v>255</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
@@ -31211,15 +30443,9 @@
       <c r="Z93" s="16"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16">
-        <v>250</v>
-      </c>
-      <c r="B94" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="16"/>
@@ -31245,15 +30471,9 @@
       <c r="Z94" s="16"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="16">
-        <v>254</v>
-      </c>
-      <c r="B95" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16"/>
@@ -31279,15 +30499,9 @@
       <c r="Z95" s="16"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="16">
-        <v>6</v>
-      </c>
-      <c r="B96" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A96" s="15"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="16"/>
@@ -31313,15 +30527,9 @@
       <c r="Z96" s="16"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="16">
-        <v>1</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A97" s="15"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="16"/>
@@ -31347,15 +30555,9 @@
       <c r="Z97" s="16"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="16">
-        <v>253</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A98" s="15"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
@@ -31381,15 +30583,9 @@
       <c r="Z98" s="16"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="16">
-        <v>3</v>
-      </c>
-      <c r="B99" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="A99" s="15"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
@@ -31415,15 +30611,9 @@
       <c r="Z99" s="16"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="16">
-        <v>12</v>
-      </c>
-      <c r="B100" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="A100" s="15"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="16"/>
@@ -31449,15 +30639,9 @@
       <c r="Z100" s="16"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="16">
-        <v>13</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="A101" s="15"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16"/>
@@ -31483,15 +30667,9 @@
       <c r="Z101" s="16"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="16">
-        <v>251</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
       <c r="F102" s="16"/>
@@ -31517,15 +30695,9 @@
       <c r="Z102" s="16"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="16">
-        <v>20</v>
-      </c>
-      <c r="B103" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A103" s="15"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
       <c r="F103" s="16"/>
@@ -31551,15 +30723,9 @@
       <c r="Z103" s="16"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="16">
-        <v>18</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
@@ -31585,15 +30751,9 @@
       <c r="Z104" s="16"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="16">
-        <v>19</v>
-      </c>
-      <c r="B105" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
@@ -31619,15 +30779,9 @@
       <c r="Z105" s="16"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="16">
-        <v>251</v>
-      </c>
-      <c r="B106" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="A106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
       <c r="F106" s="16"/>
@@ -31653,15 +30807,9 @@
       <c r="Z106" s="16"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="16">
-        <v>8</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="A107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
@@ -31687,15 +30835,9 @@
       <c r="Z107" s="16"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="16">
-        <v>251</v>
-      </c>
-      <c r="B108" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="A108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
       <c r="F108" s="16"/>
@@ -31721,15 +30863,9 @@
       <c r="Z108" s="16"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="16">
-        <v>15</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>36</v>
-      </c>
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="16"/>
@@ -31755,15 +30891,9 @@
       <c r="Z109" s="16"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="16">
-        <v>16</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
@@ -31789,15 +30919,9 @@
       <c r="Z110" s="16"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="16">
-        <v>20</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
@@ -31823,15 +30947,9 @@
       <c r="Z111" s="16"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="16">
-        <v>15</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="16"/>
@@ -31857,15 +30975,9 @@
       <c r="Z112" s="16"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="16">
-        <v>14</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16"/>
@@ -31891,15 +31003,9 @@
       <c r="Z113" s="16"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="16">
-        <v>251</v>
-      </c>
-      <c r="B114" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="A114" s="15"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
@@ -31925,15 +31031,9 @@
       <c r="Z114" s="16"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="16">
-        <v>19</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="A115" s="15"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
       <c r="F115" s="16"/>
@@ -31959,15 +31059,9 @@
       <c r="Z115" s="16"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="16">
-        <v>18</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="A116" s="15"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
@@ -31993,15 +31087,9 @@
       <c r="Z116" s="16"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="16">
-        <v>251</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>39</v>
-      </c>
+      <c r="A117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
@@ -32027,15 +31115,9 @@
       <c r="Z117" s="16"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="16">
-        <v>2</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="16"/>
@@ -32061,15 +31143,9 @@
       <c r="Z118" s="16"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="16">
-        <v>251</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="16"/>
@@ -32095,15 +31171,9 @@
       <c r="Z119" s="16"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="16">
-        <v>25</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="A120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
       <c r="F120" s="16"/>
@@ -32129,15 +31199,9 @@
       <c r="Z120" s="16"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="16">
-        <v>251</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="A121" s="15"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
       <c r="F121" s="16"/>
@@ -32163,15 +31227,9 @@
       <c r="Z121" s="16"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="16">
-        <v>14</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="A122" s="15"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
       <c r="F122" s="16"/>
@@ -32197,15 +31255,9 @@
       <c r="Z122" s="16"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="16">
-        <v>15</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="A123" s="15"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
       <c r="F123" s="16"/>
@@ -32231,15 +31283,9 @@
       <c r="Z123" s="16"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="16">
-        <v>20</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="A124" s="15"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
       <c r="F124" s="16"/>
@@ -32265,15 +31311,9 @@
       <c r="Z124" s="16"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="16">
-        <v>251</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="A125" s="15"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
       <c r="F125" s="16"/>
@@ -32299,15 +31339,9 @@
       <c r="Z125" s="16"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="16">
-        <v>20</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="A126" s="15"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
       <c r="F126" s="16"/>
@@ -32333,15 +31367,9 @@
       <c r="Z126" s="16"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="16">
-        <v>251</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="A127" s="15"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
       <c r="F127" s="16"/>
@@ -52386,2526 +51414,6 @@
       <c r="Y842" s="16"/>
       <c r="Z842" s="16"/>
     </row>
-    <row r="843" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A843" s="15"/>
-      <c r="B843" s="15"/>
-      <c r="C843" s="15"/>
-      <c r="D843" s="16"/>
-      <c r="E843" s="16"/>
-      <c r="F843" s="16"/>
-      <c r="G843" s="16"/>
-      <c r="H843" s="16"/>
-      <c r="I843" s="16"/>
-      <c r="J843" s="16"/>
-      <c r="K843" s="16"/>
-      <c r="L843" s="16"/>
-      <c r="M843" s="16"/>
-      <c r="N843" s="16"/>
-      <c r="O843" s="16"/>
-      <c r="P843" s="16"/>
-      <c r="Q843" s="16"/>
-      <c r="R843" s="16"/>
-      <c r="S843" s="16"/>
-      <c r="T843" s="16"/>
-      <c r="U843" s="16"/>
-      <c r="V843" s="16"/>
-      <c r="W843" s="16"/>
-      <c r="X843" s="16"/>
-      <c r="Y843" s="16"/>
-      <c r="Z843" s="16"/>
-    </row>
-    <row r="844" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A844" s="15"/>
-      <c r="B844" s="15"/>
-      <c r="C844" s="15"/>
-      <c r="D844" s="16"/>
-      <c r="E844" s="16"/>
-      <c r="F844" s="16"/>
-      <c r="G844" s="16"/>
-      <c r="H844" s="16"/>
-      <c r="I844" s="16"/>
-      <c r="J844" s="16"/>
-      <c r="K844" s="16"/>
-      <c r="L844" s="16"/>
-      <c r="M844" s="16"/>
-      <c r="N844" s="16"/>
-      <c r="O844" s="16"/>
-      <c r="P844" s="16"/>
-      <c r="Q844" s="16"/>
-      <c r="R844" s="16"/>
-      <c r="S844" s="16"/>
-      <c r="T844" s="16"/>
-      <c r="U844" s="16"/>
-      <c r="V844" s="16"/>
-      <c r="W844" s="16"/>
-      <c r="X844" s="16"/>
-      <c r="Y844" s="16"/>
-      <c r="Z844" s="16"/>
-    </row>
-    <row r="845" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A845" s="15"/>
-      <c r="B845" s="15"/>
-      <c r="C845" s="15"/>
-      <c r="D845" s="16"/>
-      <c r="E845" s="16"/>
-      <c r="F845" s="16"/>
-      <c r="G845" s="16"/>
-      <c r="H845" s="16"/>
-      <c r="I845" s="16"/>
-      <c r="J845" s="16"/>
-      <c r="K845" s="16"/>
-      <c r="L845" s="16"/>
-      <c r="M845" s="16"/>
-      <c r="N845" s="16"/>
-      <c r="O845" s="16"/>
-      <c r="P845" s="16"/>
-      <c r="Q845" s="16"/>
-      <c r="R845" s="16"/>
-      <c r="S845" s="16"/>
-      <c r="T845" s="16"/>
-      <c r="U845" s="16"/>
-      <c r="V845" s="16"/>
-      <c r="W845" s="16"/>
-      <c r="X845" s="16"/>
-      <c r="Y845" s="16"/>
-      <c r="Z845" s="16"/>
-    </row>
-    <row r="846" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A846" s="15"/>
-      <c r="B846" s="15"/>
-      <c r="C846" s="15"/>
-      <c r="D846" s="16"/>
-      <c r="E846" s="16"/>
-      <c r="F846" s="16"/>
-      <c r="G846" s="16"/>
-      <c r="H846" s="16"/>
-      <c r="I846" s="16"/>
-      <c r="J846" s="16"/>
-      <c r="K846" s="16"/>
-      <c r="L846" s="16"/>
-      <c r="M846" s="16"/>
-      <c r="N846" s="16"/>
-      <c r="O846" s="16"/>
-      <c r="P846" s="16"/>
-      <c r="Q846" s="16"/>
-      <c r="R846" s="16"/>
-      <c r="S846" s="16"/>
-      <c r="T846" s="16"/>
-      <c r="U846" s="16"/>
-      <c r="V846" s="16"/>
-      <c r="W846" s="16"/>
-      <c r="X846" s="16"/>
-      <c r="Y846" s="16"/>
-      <c r="Z846" s="16"/>
-    </row>
-    <row r="847" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A847" s="15"/>
-      <c r="B847" s="15"/>
-      <c r="C847" s="15"/>
-      <c r="D847" s="16"/>
-      <c r="E847" s="16"/>
-      <c r="F847" s="16"/>
-      <c r="G847" s="16"/>
-      <c r="H847" s="16"/>
-      <c r="I847" s="16"/>
-      <c r="J847" s="16"/>
-      <c r="K847" s="16"/>
-      <c r="L847" s="16"/>
-      <c r="M847" s="16"/>
-      <c r="N847" s="16"/>
-      <c r="O847" s="16"/>
-      <c r="P847" s="16"/>
-      <c r="Q847" s="16"/>
-      <c r="R847" s="16"/>
-      <c r="S847" s="16"/>
-      <c r="T847" s="16"/>
-      <c r="U847" s="16"/>
-      <c r="V847" s="16"/>
-      <c r="W847" s="16"/>
-      <c r="X847" s="16"/>
-      <c r="Y847" s="16"/>
-      <c r="Z847" s="16"/>
-    </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A848" s="15"/>
-      <c r="B848" s="15"/>
-      <c r="C848" s="15"/>
-      <c r="D848" s="16"/>
-      <c r="E848" s="16"/>
-      <c r="F848" s="16"/>
-      <c r="G848" s="16"/>
-      <c r="H848" s="16"/>
-      <c r="I848" s="16"/>
-      <c r="J848" s="16"/>
-      <c r="K848" s="16"/>
-      <c r="L848" s="16"/>
-      <c r="M848" s="16"/>
-      <c r="N848" s="16"/>
-      <c r="O848" s="16"/>
-      <c r="P848" s="16"/>
-      <c r="Q848" s="16"/>
-      <c r="R848" s="16"/>
-      <c r="S848" s="16"/>
-      <c r="T848" s="16"/>
-      <c r="U848" s="16"/>
-      <c r="V848" s="16"/>
-      <c r="W848" s="16"/>
-      <c r="X848" s="16"/>
-      <c r="Y848" s="16"/>
-      <c r="Z848" s="16"/>
-    </row>
-    <row r="849" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A849" s="15"/>
-      <c r="B849" s="15"/>
-      <c r="C849" s="15"/>
-      <c r="D849" s="16"/>
-      <c r="E849" s="16"/>
-      <c r="F849" s="16"/>
-      <c r="G849" s="16"/>
-      <c r="H849" s="16"/>
-      <c r="I849" s="16"/>
-      <c r="J849" s="16"/>
-      <c r="K849" s="16"/>
-      <c r="L849" s="16"/>
-      <c r="M849" s="16"/>
-      <c r="N849" s="16"/>
-      <c r="O849" s="16"/>
-      <c r="P849" s="16"/>
-      <c r="Q849" s="16"/>
-      <c r="R849" s="16"/>
-      <c r="S849" s="16"/>
-      <c r="T849" s="16"/>
-      <c r="U849" s="16"/>
-      <c r="V849" s="16"/>
-      <c r="W849" s="16"/>
-      <c r="X849" s="16"/>
-      <c r="Y849" s="16"/>
-      <c r="Z849" s="16"/>
-    </row>
-    <row r="850" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A850" s="15"/>
-      <c r="B850" s="15"/>
-      <c r="C850" s="15"/>
-      <c r="D850" s="16"/>
-      <c r="E850" s="16"/>
-      <c r="F850" s="16"/>
-      <c r="G850" s="16"/>
-      <c r="H850" s="16"/>
-      <c r="I850" s="16"/>
-      <c r="J850" s="16"/>
-      <c r="K850" s="16"/>
-      <c r="L850" s="16"/>
-      <c r="M850" s="16"/>
-      <c r="N850" s="16"/>
-      <c r="O850" s="16"/>
-      <c r="P850" s="16"/>
-      <c r="Q850" s="16"/>
-      <c r="R850" s="16"/>
-      <c r="S850" s="16"/>
-      <c r="T850" s="16"/>
-      <c r="U850" s="16"/>
-      <c r="V850" s="16"/>
-      <c r="W850" s="16"/>
-      <c r="X850" s="16"/>
-      <c r="Y850" s="16"/>
-      <c r="Z850" s="16"/>
-    </row>
-    <row r="851" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A851" s="15"/>
-      <c r="B851" s="15"/>
-      <c r="C851" s="15"/>
-      <c r="D851" s="16"/>
-      <c r="E851" s="16"/>
-      <c r="F851" s="16"/>
-      <c r="G851" s="16"/>
-      <c r="H851" s="16"/>
-      <c r="I851" s="16"/>
-      <c r="J851" s="16"/>
-      <c r="K851" s="16"/>
-      <c r="L851" s="16"/>
-      <c r="M851" s="16"/>
-      <c r="N851" s="16"/>
-      <c r="O851" s="16"/>
-      <c r="P851" s="16"/>
-      <c r="Q851" s="16"/>
-      <c r="R851" s="16"/>
-      <c r="S851" s="16"/>
-      <c r="T851" s="16"/>
-      <c r="U851" s="16"/>
-      <c r="V851" s="16"/>
-      <c r="W851" s="16"/>
-      <c r="X851" s="16"/>
-      <c r="Y851" s="16"/>
-      <c r="Z851" s="16"/>
-    </row>
-    <row r="852" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A852" s="15"/>
-      <c r="B852" s="15"/>
-      <c r="C852" s="15"/>
-      <c r="D852" s="16"/>
-      <c r="E852" s="16"/>
-      <c r="F852" s="16"/>
-      <c r="G852" s="16"/>
-      <c r="H852" s="16"/>
-      <c r="I852" s="16"/>
-      <c r="J852" s="16"/>
-      <c r="K852" s="16"/>
-      <c r="L852" s="16"/>
-      <c r="M852" s="16"/>
-      <c r="N852" s="16"/>
-      <c r="O852" s="16"/>
-      <c r="P852" s="16"/>
-      <c r="Q852" s="16"/>
-      <c r="R852" s="16"/>
-      <c r="S852" s="16"/>
-      <c r="T852" s="16"/>
-      <c r="U852" s="16"/>
-      <c r="V852" s="16"/>
-      <c r="W852" s="16"/>
-      <c r="X852" s="16"/>
-      <c r="Y852" s="16"/>
-      <c r="Z852" s="16"/>
-    </row>
-    <row r="853" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A853" s="15"/>
-      <c r="B853" s="15"/>
-      <c r="C853" s="15"/>
-      <c r="D853" s="16"/>
-      <c r="E853" s="16"/>
-      <c r="F853" s="16"/>
-      <c r="G853" s="16"/>
-      <c r="H853" s="16"/>
-      <c r="I853" s="16"/>
-      <c r="J853" s="16"/>
-      <c r="K853" s="16"/>
-      <c r="L853" s="16"/>
-      <c r="M853" s="16"/>
-      <c r="N853" s="16"/>
-      <c r="O853" s="16"/>
-      <c r="P853" s="16"/>
-      <c r="Q853" s="16"/>
-      <c r="R853" s="16"/>
-      <c r="S853" s="16"/>
-      <c r="T853" s="16"/>
-      <c r="U853" s="16"/>
-      <c r="V853" s="16"/>
-      <c r="W853" s="16"/>
-      <c r="X853" s="16"/>
-      <c r="Y853" s="16"/>
-      <c r="Z853" s="16"/>
-    </row>
-    <row r="854" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A854" s="15"/>
-      <c r="B854" s="15"/>
-      <c r="C854" s="15"/>
-      <c r="D854" s="16"/>
-      <c r="E854" s="16"/>
-      <c r="F854" s="16"/>
-      <c r="G854" s="16"/>
-      <c r="H854" s="16"/>
-      <c r="I854" s="16"/>
-      <c r="J854" s="16"/>
-      <c r="K854" s="16"/>
-      <c r="L854" s="16"/>
-      <c r="M854" s="16"/>
-      <c r="N854" s="16"/>
-      <c r="O854" s="16"/>
-      <c r="P854" s="16"/>
-      <c r="Q854" s="16"/>
-      <c r="R854" s="16"/>
-      <c r="S854" s="16"/>
-      <c r="T854" s="16"/>
-      <c r="U854" s="16"/>
-      <c r="V854" s="16"/>
-      <c r="W854" s="16"/>
-      <c r="X854" s="16"/>
-      <c r="Y854" s="16"/>
-      <c r="Z854" s="16"/>
-    </row>
-    <row r="855" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A855" s="15"/>
-      <c r="B855" s="15"/>
-      <c r="C855" s="15"/>
-      <c r="D855" s="16"/>
-      <c r="E855" s="16"/>
-      <c r="F855" s="16"/>
-      <c r="G855" s="16"/>
-      <c r="H855" s="16"/>
-      <c r="I855" s="16"/>
-      <c r="J855" s="16"/>
-      <c r="K855" s="16"/>
-      <c r="L855" s="16"/>
-      <c r="M855" s="16"/>
-      <c r="N855" s="16"/>
-      <c r="O855" s="16"/>
-      <c r="P855" s="16"/>
-      <c r="Q855" s="16"/>
-      <c r="R855" s="16"/>
-      <c r="S855" s="16"/>
-      <c r="T855" s="16"/>
-      <c r="U855" s="16"/>
-      <c r="V855" s="16"/>
-      <c r="W855" s="16"/>
-      <c r="X855" s="16"/>
-      <c r="Y855" s="16"/>
-      <c r="Z855" s="16"/>
-    </row>
-    <row r="856" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A856" s="15"/>
-      <c r="B856" s="15"/>
-      <c r="C856" s="15"/>
-      <c r="D856" s="16"/>
-      <c r="E856" s="16"/>
-      <c r="F856" s="16"/>
-      <c r="G856" s="16"/>
-      <c r="H856" s="16"/>
-      <c r="I856" s="16"/>
-      <c r="J856" s="16"/>
-      <c r="K856" s="16"/>
-      <c r="L856" s="16"/>
-      <c r="M856" s="16"/>
-      <c r="N856" s="16"/>
-      <c r="O856" s="16"/>
-      <c r="P856" s="16"/>
-      <c r="Q856" s="16"/>
-      <c r="R856" s="16"/>
-      <c r="S856" s="16"/>
-      <c r="T856" s="16"/>
-      <c r="U856" s="16"/>
-      <c r="V856" s="16"/>
-      <c r="W856" s="16"/>
-      <c r="X856" s="16"/>
-      <c r="Y856" s="16"/>
-      <c r="Z856" s="16"/>
-    </row>
-    <row r="857" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A857" s="15"/>
-      <c r="B857" s="15"/>
-      <c r="C857" s="15"/>
-      <c r="D857" s="16"/>
-      <c r="E857" s="16"/>
-      <c r="F857" s="16"/>
-      <c r="G857" s="16"/>
-      <c r="H857" s="16"/>
-      <c r="I857" s="16"/>
-      <c r="J857" s="16"/>
-      <c r="K857" s="16"/>
-      <c r="L857" s="16"/>
-      <c r="M857" s="16"/>
-      <c r="N857" s="16"/>
-      <c r="O857" s="16"/>
-      <c r="P857" s="16"/>
-      <c r="Q857" s="16"/>
-      <c r="R857" s="16"/>
-      <c r="S857" s="16"/>
-      <c r="T857" s="16"/>
-      <c r="U857" s="16"/>
-      <c r="V857" s="16"/>
-      <c r="W857" s="16"/>
-      <c r="X857" s="16"/>
-      <c r="Y857" s="16"/>
-      <c r="Z857" s="16"/>
-    </row>
-    <row r="858" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A858" s="15"/>
-      <c r="B858" s="15"/>
-      <c r="C858" s="15"/>
-      <c r="D858" s="16"/>
-      <c r="E858" s="16"/>
-      <c r="F858" s="16"/>
-      <c r="G858" s="16"/>
-      <c r="H858" s="16"/>
-      <c r="I858" s="16"/>
-      <c r="J858" s="16"/>
-      <c r="K858" s="16"/>
-      <c r="L858" s="16"/>
-      <c r="M858" s="16"/>
-      <c r="N858" s="16"/>
-      <c r="O858" s="16"/>
-      <c r="P858" s="16"/>
-      <c r="Q858" s="16"/>
-      <c r="R858" s="16"/>
-      <c r="S858" s="16"/>
-      <c r="T858" s="16"/>
-      <c r="U858" s="16"/>
-      <c r="V858" s="16"/>
-      <c r="W858" s="16"/>
-      <c r="X858" s="16"/>
-      <c r="Y858" s="16"/>
-      <c r="Z858" s="16"/>
-    </row>
-    <row r="859" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A859" s="15"/>
-      <c r="B859" s="15"/>
-      <c r="C859" s="15"/>
-      <c r="D859" s="16"/>
-      <c r="E859" s="16"/>
-      <c r="F859" s="16"/>
-      <c r="G859" s="16"/>
-      <c r="H859" s="16"/>
-      <c r="I859" s="16"/>
-      <c r="J859" s="16"/>
-      <c r="K859" s="16"/>
-      <c r="L859" s="16"/>
-      <c r="M859" s="16"/>
-      <c r="N859" s="16"/>
-      <c r="O859" s="16"/>
-      <c r="P859" s="16"/>
-      <c r="Q859" s="16"/>
-      <c r="R859" s="16"/>
-      <c r="S859" s="16"/>
-      <c r="T859" s="16"/>
-      <c r="U859" s="16"/>
-      <c r="V859" s="16"/>
-      <c r="W859" s="16"/>
-      <c r="X859" s="16"/>
-      <c r="Y859" s="16"/>
-      <c r="Z859" s="16"/>
-    </row>
-    <row r="860" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A860" s="15"/>
-      <c r="B860" s="15"/>
-      <c r="C860" s="15"/>
-      <c r="D860" s="16"/>
-      <c r="E860" s="16"/>
-      <c r="F860" s="16"/>
-      <c r="G860" s="16"/>
-      <c r="H860" s="16"/>
-      <c r="I860" s="16"/>
-      <c r="J860" s="16"/>
-      <c r="K860" s="16"/>
-      <c r="L860" s="16"/>
-      <c r="M860" s="16"/>
-      <c r="N860" s="16"/>
-      <c r="O860" s="16"/>
-      <c r="P860" s="16"/>
-      <c r="Q860" s="16"/>
-      <c r="R860" s="16"/>
-      <c r="S860" s="16"/>
-      <c r="T860" s="16"/>
-      <c r="U860" s="16"/>
-      <c r="V860" s="16"/>
-      <c r="W860" s="16"/>
-      <c r="X860" s="16"/>
-      <c r="Y860" s="16"/>
-      <c r="Z860" s="16"/>
-    </row>
-    <row r="861" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="15"/>
-      <c r="B861" s="15"/>
-      <c r="C861" s="15"/>
-      <c r="D861" s="16"/>
-      <c r="E861" s="16"/>
-      <c r="F861" s="16"/>
-      <c r="G861" s="16"/>
-      <c r="H861" s="16"/>
-      <c r="I861" s="16"/>
-      <c r="J861" s="16"/>
-      <c r="K861" s="16"/>
-      <c r="L861" s="16"/>
-      <c r="M861" s="16"/>
-      <c r="N861" s="16"/>
-      <c r="O861" s="16"/>
-      <c r="P861" s="16"/>
-      <c r="Q861" s="16"/>
-      <c r="R861" s="16"/>
-      <c r="S861" s="16"/>
-      <c r="T861" s="16"/>
-      <c r="U861" s="16"/>
-      <c r="V861" s="16"/>
-      <c r="W861" s="16"/>
-      <c r="X861" s="16"/>
-      <c r="Y861" s="16"/>
-      <c r="Z861" s="16"/>
-    </row>
-    <row r="862" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A862" s="15"/>
-      <c r="B862" s="15"/>
-      <c r="C862" s="15"/>
-      <c r="D862" s="16"/>
-      <c r="E862" s="16"/>
-      <c r="F862" s="16"/>
-      <c r="G862" s="16"/>
-      <c r="H862" s="16"/>
-      <c r="I862" s="16"/>
-      <c r="J862" s="16"/>
-      <c r="K862" s="16"/>
-      <c r="L862" s="16"/>
-      <c r="M862" s="16"/>
-      <c r="N862" s="16"/>
-      <c r="O862" s="16"/>
-      <c r="P862" s="16"/>
-      <c r="Q862" s="16"/>
-      <c r="R862" s="16"/>
-      <c r="S862" s="16"/>
-      <c r="T862" s="16"/>
-      <c r="U862" s="16"/>
-      <c r="V862" s="16"/>
-      <c r="W862" s="16"/>
-      <c r="X862" s="16"/>
-      <c r="Y862" s="16"/>
-      <c r="Z862" s="16"/>
-    </row>
-    <row r="863" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A863" s="15"/>
-      <c r="B863" s="15"/>
-      <c r="C863" s="15"/>
-      <c r="D863" s="16"/>
-      <c r="E863" s="16"/>
-      <c r="F863" s="16"/>
-      <c r="G863" s="16"/>
-      <c r="H863" s="16"/>
-      <c r="I863" s="16"/>
-      <c r="J863" s="16"/>
-      <c r="K863" s="16"/>
-      <c r="L863" s="16"/>
-      <c r="M863" s="16"/>
-      <c r="N863" s="16"/>
-      <c r="O863" s="16"/>
-      <c r="P863" s="16"/>
-      <c r="Q863" s="16"/>
-      <c r="R863" s="16"/>
-      <c r="S863" s="16"/>
-      <c r="T863" s="16"/>
-      <c r="U863" s="16"/>
-      <c r="V863" s="16"/>
-      <c r="W863" s="16"/>
-      <c r="X863" s="16"/>
-      <c r="Y863" s="16"/>
-      <c r="Z863" s="16"/>
-    </row>
-    <row r="864" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A864" s="15"/>
-      <c r="B864" s="15"/>
-      <c r="C864" s="15"/>
-      <c r="D864" s="16"/>
-      <c r="E864" s="16"/>
-      <c r="F864" s="16"/>
-      <c r="G864" s="16"/>
-      <c r="H864" s="16"/>
-      <c r="I864" s="16"/>
-      <c r="J864" s="16"/>
-      <c r="K864" s="16"/>
-      <c r="L864" s="16"/>
-      <c r="M864" s="16"/>
-      <c r="N864" s="16"/>
-      <c r="O864" s="16"/>
-      <c r="P864" s="16"/>
-      <c r="Q864" s="16"/>
-      <c r="R864" s="16"/>
-      <c r="S864" s="16"/>
-      <c r="T864" s="16"/>
-      <c r="U864" s="16"/>
-      <c r="V864" s="16"/>
-      <c r="W864" s="16"/>
-      <c r="X864" s="16"/>
-      <c r="Y864" s="16"/>
-      <c r="Z864" s="16"/>
-    </row>
-    <row r="865" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A865" s="15"/>
-      <c r="B865" s="15"/>
-      <c r="C865" s="15"/>
-      <c r="D865" s="16"/>
-      <c r="E865" s="16"/>
-      <c r="F865" s="16"/>
-      <c r="G865" s="16"/>
-      <c r="H865" s="16"/>
-      <c r="I865" s="16"/>
-      <c r="J865" s="16"/>
-      <c r="K865" s="16"/>
-      <c r="L865" s="16"/>
-      <c r="M865" s="16"/>
-      <c r="N865" s="16"/>
-      <c r="O865" s="16"/>
-      <c r="P865" s="16"/>
-      <c r="Q865" s="16"/>
-      <c r="R865" s="16"/>
-      <c r="S865" s="16"/>
-      <c r="T865" s="16"/>
-      <c r="U865" s="16"/>
-      <c r="V865" s="16"/>
-      <c r="W865" s="16"/>
-      <c r="X865" s="16"/>
-      <c r="Y865" s="16"/>
-      <c r="Z865" s="16"/>
-    </row>
-    <row r="866" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A866" s="15"/>
-      <c r="B866" s="15"/>
-      <c r="C866" s="15"/>
-      <c r="D866" s="16"/>
-      <c r="E866" s="16"/>
-      <c r="F866" s="16"/>
-      <c r="G866" s="16"/>
-      <c r="H866" s="16"/>
-      <c r="I866" s="16"/>
-      <c r="J866" s="16"/>
-      <c r="K866" s="16"/>
-      <c r="L866" s="16"/>
-      <c r="M866" s="16"/>
-      <c r="N866" s="16"/>
-      <c r="O866" s="16"/>
-      <c r="P866" s="16"/>
-      <c r="Q866" s="16"/>
-      <c r="R866" s="16"/>
-      <c r="S866" s="16"/>
-      <c r="T866" s="16"/>
-      <c r="U866" s="16"/>
-      <c r="V866" s="16"/>
-      <c r="W866" s="16"/>
-      <c r="X866" s="16"/>
-      <c r="Y866" s="16"/>
-      <c r="Z866" s="16"/>
-    </row>
-    <row r="867" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A867" s="15"/>
-      <c r="B867" s="15"/>
-      <c r="C867" s="15"/>
-      <c r="D867" s="16"/>
-      <c r="E867" s="16"/>
-      <c r="F867" s="16"/>
-      <c r="G867" s="16"/>
-      <c r="H867" s="16"/>
-      <c r="I867" s="16"/>
-      <c r="J867" s="16"/>
-      <c r="K867" s="16"/>
-      <c r="L867" s="16"/>
-      <c r="M867" s="16"/>
-      <c r="N867" s="16"/>
-      <c r="O867" s="16"/>
-      <c r="P867" s="16"/>
-      <c r="Q867" s="16"/>
-      <c r="R867" s="16"/>
-      <c r="S867" s="16"/>
-      <c r="T867" s="16"/>
-      <c r="U867" s="16"/>
-      <c r="V867" s="16"/>
-      <c r="W867" s="16"/>
-      <c r="X867" s="16"/>
-      <c r="Y867" s="16"/>
-      <c r="Z867" s="16"/>
-    </row>
-    <row r="868" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A868" s="15"/>
-      <c r="B868" s="15"/>
-      <c r="C868" s="15"/>
-      <c r="D868" s="16"/>
-      <c r="E868" s="16"/>
-      <c r="F868" s="16"/>
-      <c r="G868" s="16"/>
-      <c r="H868" s="16"/>
-      <c r="I868" s="16"/>
-      <c r="J868" s="16"/>
-      <c r="K868" s="16"/>
-      <c r="L868" s="16"/>
-      <c r="M868" s="16"/>
-      <c r="N868" s="16"/>
-      <c r="O868" s="16"/>
-      <c r="P868" s="16"/>
-      <c r="Q868" s="16"/>
-      <c r="R868" s="16"/>
-      <c r="S868" s="16"/>
-      <c r="T868" s="16"/>
-      <c r="U868" s="16"/>
-      <c r="V868" s="16"/>
-      <c r="W868" s="16"/>
-      <c r="X868" s="16"/>
-      <c r="Y868" s="16"/>
-      <c r="Z868" s="16"/>
-    </row>
-    <row r="869" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A869" s="15"/>
-      <c r="B869" s="15"/>
-      <c r="C869" s="15"/>
-      <c r="D869" s="16"/>
-      <c r="E869" s="16"/>
-      <c r="F869" s="16"/>
-      <c r="G869" s="16"/>
-      <c r="H869" s="16"/>
-      <c r="I869" s="16"/>
-      <c r="J869" s="16"/>
-      <c r="K869" s="16"/>
-      <c r="L869" s="16"/>
-      <c r="M869" s="16"/>
-      <c r="N869" s="16"/>
-      <c r="O869" s="16"/>
-      <c r="P869" s="16"/>
-      <c r="Q869" s="16"/>
-      <c r="R869" s="16"/>
-      <c r="S869" s="16"/>
-      <c r="T869" s="16"/>
-      <c r="U869" s="16"/>
-      <c r="V869" s="16"/>
-      <c r="W869" s="16"/>
-      <c r="X869" s="16"/>
-      <c r="Y869" s="16"/>
-      <c r="Z869" s="16"/>
-    </row>
-    <row r="870" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A870" s="15"/>
-      <c r="B870" s="15"/>
-      <c r="C870" s="15"/>
-      <c r="D870" s="16"/>
-      <c r="E870" s="16"/>
-      <c r="F870" s="16"/>
-      <c r="G870" s="16"/>
-      <c r="H870" s="16"/>
-      <c r="I870" s="16"/>
-      <c r="J870" s="16"/>
-      <c r="K870" s="16"/>
-      <c r="L870" s="16"/>
-      <c r="M870" s="16"/>
-      <c r="N870" s="16"/>
-      <c r="O870" s="16"/>
-      <c r="P870" s="16"/>
-      <c r="Q870" s="16"/>
-      <c r="R870" s="16"/>
-      <c r="S870" s="16"/>
-      <c r="T870" s="16"/>
-      <c r="U870" s="16"/>
-      <c r="V870" s="16"/>
-      <c r="W870" s="16"/>
-      <c r="X870" s="16"/>
-      <c r="Y870" s="16"/>
-      <c r="Z870" s="16"/>
-    </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A871" s="15"/>
-      <c r="B871" s="15"/>
-      <c r="C871" s="15"/>
-      <c r="D871" s="16"/>
-      <c r="E871" s="16"/>
-      <c r="F871" s="16"/>
-      <c r="G871" s="16"/>
-      <c r="H871" s="16"/>
-      <c r="I871" s="16"/>
-      <c r="J871" s="16"/>
-      <c r="K871" s="16"/>
-      <c r="L871" s="16"/>
-      <c r="M871" s="16"/>
-      <c r="N871" s="16"/>
-      <c r="O871" s="16"/>
-      <c r="P871" s="16"/>
-      <c r="Q871" s="16"/>
-      <c r="R871" s="16"/>
-      <c r="S871" s="16"/>
-      <c r="T871" s="16"/>
-      <c r="U871" s="16"/>
-      <c r="V871" s="16"/>
-      <c r="W871" s="16"/>
-      <c r="X871" s="16"/>
-      <c r="Y871" s="16"/>
-      <c r="Z871" s="16"/>
-    </row>
-    <row r="872" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A872" s="15"/>
-      <c r="B872" s="15"/>
-      <c r="C872" s="15"/>
-      <c r="D872" s="16"/>
-      <c r="E872" s="16"/>
-      <c r="F872" s="16"/>
-      <c r="G872" s="16"/>
-      <c r="H872" s="16"/>
-      <c r="I872" s="16"/>
-      <c r="J872" s="16"/>
-      <c r="K872" s="16"/>
-      <c r="L872" s="16"/>
-      <c r="M872" s="16"/>
-      <c r="N872" s="16"/>
-      <c r="O872" s="16"/>
-      <c r="P872" s="16"/>
-      <c r="Q872" s="16"/>
-      <c r="R872" s="16"/>
-      <c r="S872" s="16"/>
-      <c r="T872" s="16"/>
-      <c r="U872" s="16"/>
-      <c r="V872" s="16"/>
-      <c r="W872" s="16"/>
-      <c r="X872" s="16"/>
-      <c r="Y872" s="16"/>
-      <c r="Z872" s="16"/>
-    </row>
-    <row r="873" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A873" s="15"/>
-      <c r="B873" s="15"/>
-      <c r="C873" s="15"/>
-      <c r="D873" s="16"/>
-      <c r="E873" s="16"/>
-      <c r="F873" s="16"/>
-      <c r="G873" s="16"/>
-      <c r="H873" s="16"/>
-      <c r="I873" s="16"/>
-      <c r="J873" s="16"/>
-      <c r="K873" s="16"/>
-      <c r="L873" s="16"/>
-      <c r="M873" s="16"/>
-      <c r="N873" s="16"/>
-      <c r="O873" s="16"/>
-      <c r="P873" s="16"/>
-      <c r="Q873" s="16"/>
-      <c r="R873" s="16"/>
-      <c r="S873" s="16"/>
-      <c r="T873" s="16"/>
-      <c r="U873" s="16"/>
-      <c r="V873" s="16"/>
-      <c r="W873" s="16"/>
-      <c r="X873" s="16"/>
-      <c r="Y873" s="16"/>
-      <c r="Z873" s="16"/>
-    </row>
-    <row r="874" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A874" s="15"/>
-      <c r="B874" s="15"/>
-      <c r="C874" s="15"/>
-      <c r="D874" s="16"/>
-      <c r="E874" s="16"/>
-      <c r="F874" s="16"/>
-      <c r="G874" s="16"/>
-      <c r="H874" s="16"/>
-      <c r="I874" s="16"/>
-      <c r="J874" s="16"/>
-      <c r="K874" s="16"/>
-      <c r="L874" s="16"/>
-      <c r="M874" s="16"/>
-      <c r="N874" s="16"/>
-      <c r="O874" s="16"/>
-      <c r="P874" s="16"/>
-      <c r="Q874" s="16"/>
-      <c r="R874" s="16"/>
-      <c r="S874" s="16"/>
-      <c r="T874" s="16"/>
-      <c r="U874" s="16"/>
-      <c r="V874" s="16"/>
-      <c r="W874" s="16"/>
-      <c r="X874" s="16"/>
-      <c r="Y874" s="16"/>
-      <c r="Z874" s="16"/>
-    </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A875" s="15"/>
-      <c r="B875" s="15"/>
-      <c r="C875" s="15"/>
-      <c r="D875" s="16"/>
-      <c r="E875" s="16"/>
-      <c r="F875" s="16"/>
-      <c r="G875" s="16"/>
-      <c r="H875" s="16"/>
-      <c r="I875" s="16"/>
-      <c r="J875" s="16"/>
-      <c r="K875" s="16"/>
-      <c r="L875" s="16"/>
-      <c r="M875" s="16"/>
-      <c r="N875" s="16"/>
-      <c r="O875" s="16"/>
-      <c r="P875" s="16"/>
-      <c r="Q875" s="16"/>
-      <c r="R875" s="16"/>
-      <c r="S875" s="16"/>
-      <c r="T875" s="16"/>
-      <c r="U875" s="16"/>
-      <c r="V875" s="16"/>
-      <c r="W875" s="16"/>
-      <c r="X875" s="16"/>
-      <c r="Y875" s="16"/>
-      <c r="Z875" s="16"/>
-    </row>
-    <row r="876" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A876" s="15"/>
-      <c r="B876" s="15"/>
-      <c r="C876" s="15"/>
-      <c r="D876" s="16"/>
-      <c r="E876" s="16"/>
-      <c r="F876" s="16"/>
-      <c r="G876" s="16"/>
-      <c r="H876" s="16"/>
-      <c r="I876" s="16"/>
-      <c r="J876" s="16"/>
-      <c r="K876" s="16"/>
-      <c r="L876" s="16"/>
-      <c r="M876" s="16"/>
-      <c r="N876" s="16"/>
-      <c r="O876" s="16"/>
-      <c r="P876" s="16"/>
-      <c r="Q876" s="16"/>
-      <c r="R876" s="16"/>
-      <c r="S876" s="16"/>
-      <c r="T876" s="16"/>
-      <c r="U876" s="16"/>
-      <c r="V876" s="16"/>
-      <c r="W876" s="16"/>
-      <c r="X876" s="16"/>
-      <c r="Y876" s="16"/>
-      <c r="Z876" s="16"/>
-    </row>
-    <row r="877" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A877" s="15"/>
-      <c r="B877" s="15"/>
-      <c r="C877" s="15"/>
-      <c r="D877" s="16"/>
-      <c r="E877" s="16"/>
-      <c r="F877" s="16"/>
-      <c r="G877" s="16"/>
-      <c r="H877" s="16"/>
-      <c r="I877" s="16"/>
-      <c r="J877" s="16"/>
-      <c r="K877" s="16"/>
-      <c r="L877" s="16"/>
-      <c r="M877" s="16"/>
-      <c r="N877" s="16"/>
-      <c r="O877" s="16"/>
-      <c r="P877" s="16"/>
-      <c r="Q877" s="16"/>
-      <c r="R877" s="16"/>
-      <c r="S877" s="16"/>
-      <c r="T877" s="16"/>
-      <c r="U877" s="16"/>
-      <c r="V877" s="16"/>
-      <c r="W877" s="16"/>
-      <c r="X877" s="16"/>
-      <c r="Y877" s="16"/>
-      <c r="Z877" s="16"/>
-    </row>
-    <row r="878" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A878" s="15"/>
-      <c r="B878" s="15"/>
-      <c r="C878" s="15"/>
-      <c r="D878" s="16"/>
-      <c r="E878" s="16"/>
-      <c r="F878" s="16"/>
-      <c r="G878" s="16"/>
-      <c r="H878" s="16"/>
-      <c r="I878" s="16"/>
-      <c r="J878" s="16"/>
-      <c r="K878" s="16"/>
-      <c r="L878" s="16"/>
-      <c r="M878" s="16"/>
-      <c r="N878" s="16"/>
-      <c r="O878" s="16"/>
-      <c r="P878" s="16"/>
-      <c r="Q878" s="16"/>
-      <c r="R878" s="16"/>
-      <c r="S878" s="16"/>
-      <c r="T878" s="16"/>
-      <c r="U878" s="16"/>
-      <c r="V878" s="16"/>
-      <c r="W878" s="16"/>
-      <c r="X878" s="16"/>
-      <c r="Y878" s="16"/>
-      <c r="Z878" s="16"/>
-    </row>
-    <row r="879" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A879" s="15"/>
-      <c r="B879" s="15"/>
-      <c r="C879" s="15"/>
-      <c r="D879" s="16"/>
-      <c r="E879" s="16"/>
-      <c r="F879" s="16"/>
-      <c r="G879" s="16"/>
-      <c r="H879" s="16"/>
-      <c r="I879" s="16"/>
-      <c r="J879" s="16"/>
-      <c r="K879" s="16"/>
-      <c r="L879" s="16"/>
-      <c r="M879" s="16"/>
-      <c r="N879" s="16"/>
-      <c r="O879" s="16"/>
-      <c r="P879" s="16"/>
-      <c r="Q879" s="16"/>
-      <c r="R879" s="16"/>
-      <c r="S879" s="16"/>
-      <c r="T879" s="16"/>
-      <c r="U879" s="16"/>
-      <c r="V879" s="16"/>
-      <c r="W879" s="16"/>
-      <c r="X879" s="16"/>
-      <c r="Y879" s="16"/>
-      <c r="Z879" s="16"/>
-    </row>
-    <row r="880" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A880" s="15"/>
-      <c r="B880" s="15"/>
-      <c r="C880" s="15"/>
-      <c r="D880" s="16"/>
-      <c r="E880" s="16"/>
-      <c r="F880" s="16"/>
-      <c r="G880" s="16"/>
-      <c r="H880" s="16"/>
-      <c r="I880" s="16"/>
-      <c r="J880" s="16"/>
-      <c r="K880" s="16"/>
-      <c r="L880" s="16"/>
-      <c r="M880" s="16"/>
-      <c r="N880" s="16"/>
-      <c r="O880" s="16"/>
-      <c r="P880" s="16"/>
-      <c r="Q880" s="16"/>
-      <c r="R880" s="16"/>
-      <c r="S880" s="16"/>
-      <c r="T880" s="16"/>
-      <c r="U880" s="16"/>
-      <c r="V880" s="16"/>
-      <c r="W880" s="16"/>
-      <c r="X880" s="16"/>
-      <c r="Y880" s="16"/>
-      <c r="Z880" s="16"/>
-    </row>
-    <row r="881" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A881" s="15"/>
-      <c r="B881" s="15"/>
-      <c r="C881" s="15"/>
-      <c r="D881" s="16"/>
-      <c r="E881" s="16"/>
-      <c r="F881" s="16"/>
-      <c r="G881" s="16"/>
-      <c r="H881" s="16"/>
-      <c r="I881" s="16"/>
-      <c r="J881" s="16"/>
-      <c r="K881" s="16"/>
-      <c r="L881" s="16"/>
-      <c r="M881" s="16"/>
-      <c r="N881" s="16"/>
-      <c r="O881" s="16"/>
-      <c r="P881" s="16"/>
-      <c r="Q881" s="16"/>
-      <c r="R881" s="16"/>
-      <c r="S881" s="16"/>
-      <c r="T881" s="16"/>
-      <c r="U881" s="16"/>
-      <c r="V881" s="16"/>
-      <c r="W881" s="16"/>
-      <c r="X881" s="16"/>
-      <c r="Y881" s="16"/>
-      <c r="Z881" s="16"/>
-    </row>
-    <row r="882" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A882" s="15"/>
-      <c r="B882" s="15"/>
-      <c r="C882" s="15"/>
-      <c r="D882" s="16"/>
-      <c r="E882" s="16"/>
-      <c r="F882" s="16"/>
-      <c r="G882" s="16"/>
-      <c r="H882" s="16"/>
-      <c r="I882" s="16"/>
-      <c r="J882" s="16"/>
-      <c r="K882" s="16"/>
-      <c r="L882" s="16"/>
-      <c r="M882" s="16"/>
-      <c r="N882" s="16"/>
-      <c r="O882" s="16"/>
-      <c r="P882" s="16"/>
-      <c r="Q882" s="16"/>
-      <c r="R882" s="16"/>
-      <c r="S882" s="16"/>
-      <c r="T882" s="16"/>
-      <c r="U882" s="16"/>
-      <c r="V882" s="16"/>
-      <c r="W882" s="16"/>
-      <c r="X882" s="16"/>
-      <c r="Y882" s="16"/>
-      <c r="Z882" s="16"/>
-    </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A883" s="15"/>
-      <c r="B883" s="15"/>
-      <c r="C883" s="15"/>
-      <c r="D883" s="16"/>
-      <c r="E883" s="16"/>
-      <c r="F883" s="16"/>
-      <c r="G883" s="16"/>
-      <c r="H883" s="16"/>
-      <c r="I883" s="16"/>
-      <c r="J883" s="16"/>
-      <c r="K883" s="16"/>
-      <c r="L883" s="16"/>
-      <c r="M883" s="16"/>
-      <c r="N883" s="16"/>
-      <c r="O883" s="16"/>
-      <c r="P883" s="16"/>
-      <c r="Q883" s="16"/>
-      <c r="R883" s="16"/>
-      <c r="S883" s="16"/>
-      <c r="T883" s="16"/>
-      <c r="U883" s="16"/>
-      <c r="V883" s="16"/>
-      <c r="W883" s="16"/>
-      <c r="X883" s="16"/>
-      <c r="Y883" s="16"/>
-      <c r="Z883" s="16"/>
-    </row>
-    <row r="884" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A884" s="15"/>
-      <c r="B884" s="15"/>
-      <c r="C884" s="15"/>
-      <c r="D884" s="16"/>
-      <c r="E884" s="16"/>
-      <c r="F884" s="16"/>
-      <c r="G884" s="16"/>
-      <c r="H884" s="16"/>
-      <c r="I884" s="16"/>
-      <c r="J884" s="16"/>
-      <c r="K884" s="16"/>
-      <c r="L884" s="16"/>
-      <c r="M884" s="16"/>
-      <c r="N884" s="16"/>
-      <c r="O884" s="16"/>
-      <c r="P884" s="16"/>
-      <c r="Q884" s="16"/>
-      <c r="R884" s="16"/>
-      <c r="S884" s="16"/>
-      <c r="T884" s="16"/>
-      <c r="U884" s="16"/>
-      <c r="V884" s="16"/>
-      <c r="W884" s="16"/>
-      <c r="X884" s="16"/>
-      <c r="Y884" s="16"/>
-      <c r="Z884" s="16"/>
-    </row>
-    <row r="885" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A885" s="15"/>
-      <c r="B885" s="15"/>
-      <c r="C885" s="15"/>
-      <c r="D885" s="16"/>
-      <c r="E885" s="16"/>
-      <c r="F885" s="16"/>
-      <c r="G885" s="16"/>
-      <c r="H885" s="16"/>
-      <c r="I885" s="16"/>
-      <c r="J885" s="16"/>
-      <c r="K885" s="16"/>
-      <c r="L885" s="16"/>
-      <c r="M885" s="16"/>
-      <c r="N885" s="16"/>
-      <c r="O885" s="16"/>
-      <c r="P885" s="16"/>
-      <c r="Q885" s="16"/>
-      <c r="R885" s="16"/>
-      <c r="S885" s="16"/>
-      <c r="T885" s="16"/>
-      <c r="U885" s="16"/>
-      <c r="V885" s="16"/>
-      <c r="W885" s="16"/>
-      <c r="X885" s="16"/>
-      <c r="Y885" s="16"/>
-      <c r="Z885" s="16"/>
-    </row>
-    <row r="886" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A886" s="15"/>
-      <c r="B886" s="15"/>
-      <c r="C886" s="15"/>
-      <c r="D886" s="16"/>
-      <c r="E886" s="16"/>
-      <c r="F886" s="16"/>
-      <c r="G886" s="16"/>
-      <c r="H886" s="16"/>
-      <c r="I886" s="16"/>
-      <c r="J886" s="16"/>
-      <c r="K886" s="16"/>
-      <c r="L886" s="16"/>
-      <c r="M886" s="16"/>
-      <c r="N886" s="16"/>
-      <c r="O886" s="16"/>
-      <c r="P886" s="16"/>
-      <c r="Q886" s="16"/>
-      <c r="R886" s="16"/>
-      <c r="S886" s="16"/>
-      <c r="T886" s="16"/>
-      <c r="U886" s="16"/>
-      <c r="V886" s="16"/>
-      <c r="W886" s="16"/>
-      <c r="X886" s="16"/>
-      <c r="Y886" s="16"/>
-      <c r="Z886" s="16"/>
-    </row>
-    <row r="887" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A887" s="15"/>
-      <c r="B887" s="15"/>
-      <c r="C887" s="15"/>
-      <c r="D887" s="16"/>
-      <c r="E887" s="16"/>
-      <c r="F887" s="16"/>
-      <c r="G887" s="16"/>
-      <c r="H887" s="16"/>
-      <c r="I887" s="16"/>
-      <c r="J887" s="16"/>
-      <c r="K887" s="16"/>
-      <c r="L887" s="16"/>
-      <c r="M887" s="16"/>
-      <c r="N887" s="16"/>
-      <c r="O887" s="16"/>
-      <c r="P887" s="16"/>
-      <c r="Q887" s="16"/>
-      <c r="R887" s="16"/>
-      <c r="S887" s="16"/>
-      <c r="T887" s="16"/>
-      <c r="U887" s="16"/>
-      <c r="V887" s="16"/>
-      <c r="W887" s="16"/>
-      <c r="X887" s="16"/>
-      <c r="Y887" s="16"/>
-      <c r="Z887" s="16"/>
-    </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A888" s="15"/>
-      <c r="B888" s="15"/>
-      <c r="C888" s="15"/>
-      <c r="D888" s="16"/>
-      <c r="E888" s="16"/>
-      <c r="F888" s="16"/>
-      <c r="G888" s="16"/>
-      <c r="H888" s="16"/>
-      <c r="I888" s="16"/>
-      <c r="J888" s="16"/>
-      <c r="K888" s="16"/>
-      <c r="L888" s="16"/>
-      <c r="M888" s="16"/>
-      <c r="N888" s="16"/>
-      <c r="O888" s="16"/>
-      <c r="P888" s="16"/>
-      <c r="Q888" s="16"/>
-      <c r="R888" s="16"/>
-      <c r="S888" s="16"/>
-      <c r="T888" s="16"/>
-      <c r="U888" s="16"/>
-      <c r="V888" s="16"/>
-      <c r="W888" s="16"/>
-      <c r="X888" s="16"/>
-      <c r="Y888" s="16"/>
-      <c r="Z888" s="16"/>
-    </row>
-    <row r="889" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A889" s="15"/>
-      <c r="B889" s="15"/>
-      <c r="C889" s="15"/>
-      <c r="D889" s="16"/>
-      <c r="E889" s="16"/>
-      <c r="F889" s="16"/>
-      <c r="G889" s="16"/>
-      <c r="H889" s="16"/>
-      <c r="I889" s="16"/>
-      <c r="J889" s="16"/>
-      <c r="K889" s="16"/>
-      <c r="L889" s="16"/>
-      <c r="M889" s="16"/>
-      <c r="N889" s="16"/>
-      <c r="O889" s="16"/>
-      <c r="P889" s="16"/>
-      <c r="Q889" s="16"/>
-      <c r="R889" s="16"/>
-      <c r="S889" s="16"/>
-      <c r="T889" s="16"/>
-      <c r="U889" s="16"/>
-      <c r="V889" s="16"/>
-      <c r="W889" s="16"/>
-      <c r="X889" s="16"/>
-      <c r="Y889" s="16"/>
-      <c r="Z889" s="16"/>
-    </row>
-    <row r="890" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A890" s="15"/>
-      <c r="B890" s="15"/>
-      <c r="C890" s="15"/>
-      <c r="D890" s="16"/>
-      <c r="E890" s="16"/>
-      <c r="F890" s="16"/>
-      <c r="G890" s="16"/>
-      <c r="H890" s="16"/>
-      <c r="I890" s="16"/>
-      <c r="J890" s="16"/>
-      <c r="K890" s="16"/>
-      <c r="L890" s="16"/>
-      <c r="M890" s="16"/>
-      <c r="N890" s="16"/>
-      <c r="O890" s="16"/>
-      <c r="P890" s="16"/>
-      <c r="Q890" s="16"/>
-      <c r="R890" s="16"/>
-      <c r="S890" s="16"/>
-      <c r="T890" s="16"/>
-      <c r="U890" s="16"/>
-      <c r="V890" s="16"/>
-      <c r="W890" s="16"/>
-      <c r="X890" s="16"/>
-      <c r="Y890" s="16"/>
-      <c r="Z890" s="16"/>
-    </row>
-    <row r="891" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A891" s="15"/>
-      <c r="B891" s="15"/>
-      <c r="C891" s="15"/>
-      <c r="D891" s="16"/>
-      <c r="E891" s="16"/>
-      <c r="F891" s="16"/>
-      <c r="G891" s="16"/>
-      <c r="H891" s="16"/>
-      <c r="I891" s="16"/>
-      <c r="J891" s="16"/>
-      <c r="K891" s="16"/>
-      <c r="L891" s="16"/>
-      <c r="M891" s="16"/>
-      <c r="N891" s="16"/>
-      <c r="O891" s="16"/>
-      <c r="P891" s="16"/>
-      <c r="Q891" s="16"/>
-      <c r="R891" s="16"/>
-      <c r="S891" s="16"/>
-      <c r="T891" s="16"/>
-      <c r="U891" s="16"/>
-      <c r="V891" s="16"/>
-      <c r="W891" s="16"/>
-      <c r="X891" s="16"/>
-      <c r="Y891" s="16"/>
-      <c r="Z891" s="16"/>
-    </row>
-    <row r="892" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A892" s="15"/>
-      <c r="B892" s="15"/>
-      <c r="C892" s="15"/>
-      <c r="D892" s="16"/>
-      <c r="E892" s="16"/>
-      <c r="F892" s="16"/>
-      <c r="G892" s="16"/>
-      <c r="H892" s="16"/>
-      <c r="I892" s="16"/>
-      <c r="J892" s="16"/>
-      <c r="K892" s="16"/>
-      <c r="L892" s="16"/>
-      <c r="M892" s="16"/>
-      <c r="N892" s="16"/>
-      <c r="O892" s="16"/>
-      <c r="P892" s="16"/>
-      <c r="Q892" s="16"/>
-      <c r="R892" s="16"/>
-      <c r="S892" s="16"/>
-      <c r="T892" s="16"/>
-      <c r="U892" s="16"/>
-      <c r="V892" s="16"/>
-      <c r="W892" s="16"/>
-      <c r="X892" s="16"/>
-      <c r="Y892" s="16"/>
-      <c r="Z892" s="16"/>
-    </row>
-    <row r="893" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A893" s="15"/>
-      <c r="B893" s="15"/>
-      <c r="C893" s="15"/>
-      <c r="D893" s="16"/>
-      <c r="E893" s="16"/>
-      <c r="F893" s="16"/>
-      <c r="G893" s="16"/>
-      <c r="H893" s="16"/>
-      <c r="I893" s="16"/>
-      <c r="J893" s="16"/>
-      <c r="K893" s="16"/>
-      <c r="L893" s="16"/>
-      <c r="M893" s="16"/>
-      <c r="N893" s="16"/>
-      <c r="O893" s="16"/>
-      <c r="P893" s="16"/>
-      <c r="Q893" s="16"/>
-      <c r="R893" s="16"/>
-      <c r="S893" s="16"/>
-      <c r="T893" s="16"/>
-      <c r="U893" s="16"/>
-      <c r="V893" s="16"/>
-      <c r="W893" s="16"/>
-      <c r="X893" s="16"/>
-      <c r="Y893" s="16"/>
-      <c r="Z893" s="16"/>
-    </row>
-    <row r="894" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A894" s="15"/>
-      <c r="B894" s="15"/>
-      <c r="C894" s="15"/>
-      <c r="D894" s="16"/>
-      <c r="E894" s="16"/>
-      <c r="F894" s="16"/>
-      <c r="G894" s="16"/>
-      <c r="H894" s="16"/>
-      <c r="I894" s="16"/>
-      <c r="J894" s="16"/>
-      <c r="K894" s="16"/>
-      <c r="L894" s="16"/>
-      <c r="M894" s="16"/>
-      <c r="N894" s="16"/>
-      <c r="O894" s="16"/>
-      <c r="P894" s="16"/>
-      <c r="Q894" s="16"/>
-      <c r="R894" s="16"/>
-      <c r="S894" s="16"/>
-      <c r="T894" s="16"/>
-      <c r="U894" s="16"/>
-      <c r="V894" s="16"/>
-      <c r="W894" s="16"/>
-      <c r="X894" s="16"/>
-      <c r="Y894" s="16"/>
-      <c r="Z894" s="16"/>
-    </row>
-    <row r="895" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A895" s="15"/>
-      <c r="B895" s="15"/>
-      <c r="C895" s="15"/>
-      <c r="D895" s="16"/>
-      <c r="E895" s="16"/>
-      <c r="F895" s="16"/>
-      <c r="G895" s="16"/>
-      <c r="H895" s="16"/>
-      <c r="I895" s="16"/>
-      <c r="J895" s="16"/>
-      <c r="K895" s="16"/>
-      <c r="L895" s="16"/>
-      <c r="M895" s="16"/>
-      <c r="N895" s="16"/>
-      <c r="O895" s="16"/>
-      <c r="P895" s="16"/>
-      <c r="Q895" s="16"/>
-      <c r="R895" s="16"/>
-      <c r="S895" s="16"/>
-      <c r="T895" s="16"/>
-      <c r="U895" s="16"/>
-      <c r="V895" s="16"/>
-      <c r="W895" s="16"/>
-      <c r="X895" s="16"/>
-      <c r="Y895" s="16"/>
-      <c r="Z895" s="16"/>
-    </row>
-    <row r="896" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A896" s="15"/>
-      <c r="B896" s="15"/>
-      <c r="C896" s="15"/>
-      <c r="D896" s="16"/>
-      <c r="E896" s="16"/>
-      <c r="F896" s="16"/>
-      <c r="G896" s="16"/>
-      <c r="H896" s="16"/>
-      <c r="I896" s="16"/>
-      <c r="J896" s="16"/>
-      <c r="K896" s="16"/>
-      <c r="L896" s="16"/>
-      <c r="M896" s="16"/>
-      <c r="N896" s="16"/>
-      <c r="O896" s="16"/>
-      <c r="P896" s="16"/>
-      <c r="Q896" s="16"/>
-      <c r="R896" s="16"/>
-      <c r="S896" s="16"/>
-      <c r="T896" s="16"/>
-      <c r="U896" s="16"/>
-      <c r="V896" s="16"/>
-      <c r="W896" s="16"/>
-      <c r="X896" s="16"/>
-      <c r="Y896" s="16"/>
-      <c r="Z896" s="16"/>
-    </row>
-    <row r="897" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A897" s="15"/>
-      <c r="B897" s="15"/>
-      <c r="C897" s="15"/>
-      <c r="D897" s="16"/>
-      <c r="E897" s="16"/>
-      <c r="F897" s="16"/>
-      <c r="G897" s="16"/>
-      <c r="H897" s="16"/>
-      <c r="I897" s="16"/>
-      <c r="J897" s="16"/>
-      <c r="K897" s="16"/>
-      <c r="L897" s="16"/>
-      <c r="M897" s="16"/>
-      <c r="N897" s="16"/>
-      <c r="O897" s="16"/>
-      <c r="P897" s="16"/>
-      <c r="Q897" s="16"/>
-      <c r="R897" s="16"/>
-      <c r="S897" s="16"/>
-      <c r="T897" s="16"/>
-      <c r="U897" s="16"/>
-      <c r="V897" s="16"/>
-      <c r="W897" s="16"/>
-      <c r="X897" s="16"/>
-      <c r="Y897" s="16"/>
-      <c r="Z897" s="16"/>
-    </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A898" s="15"/>
-      <c r="B898" s="15"/>
-      <c r="C898" s="15"/>
-      <c r="D898" s="16"/>
-      <c r="E898" s="16"/>
-      <c r="F898" s="16"/>
-      <c r="G898" s="16"/>
-      <c r="H898" s="16"/>
-      <c r="I898" s="16"/>
-      <c r="J898" s="16"/>
-      <c r="K898" s="16"/>
-      <c r="L898" s="16"/>
-      <c r="M898" s="16"/>
-      <c r="N898" s="16"/>
-      <c r="O898" s="16"/>
-      <c r="P898" s="16"/>
-      <c r="Q898" s="16"/>
-      <c r="R898" s="16"/>
-      <c r="S898" s="16"/>
-      <c r="T898" s="16"/>
-      <c r="U898" s="16"/>
-      <c r="V898" s="16"/>
-      <c r="W898" s="16"/>
-      <c r="X898" s="16"/>
-      <c r="Y898" s="16"/>
-      <c r="Z898" s="16"/>
-    </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A899" s="15"/>
-      <c r="B899" s="15"/>
-      <c r="C899" s="15"/>
-      <c r="D899" s="16"/>
-      <c r="E899" s="16"/>
-      <c r="F899" s="16"/>
-      <c r="G899" s="16"/>
-      <c r="H899" s="16"/>
-      <c r="I899" s="16"/>
-      <c r="J899" s="16"/>
-      <c r="K899" s="16"/>
-      <c r="L899" s="16"/>
-      <c r="M899" s="16"/>
-      <c r="N899" s="16"/>
-      <c r="O899" s="16"/>
-      <c r="P899" s="16"/>
-      <c r="Q899" s="16"/>
-      <c r="R899" s="16"/>
-      <c r="S899" s="16"/>
-      <c r="T899" s="16"/>
-      <c r="U899" s="16"/>
-      <c r="V899" s="16"/>
-      <c r="W899" s="16"/>
-      <c r="X899" s="16"/>
-      <c r="Y899" s="16"/>
-      <c r="Z899" s="16"/>
-    </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A900" s="15"/>
-      <c r="B900" s="15"/>
-      <c r="C900" s="15"/>
-      <c r="D900" s="16"/>
-      <c r="E900" s="16"/>
-      <c r="F900" s="16"/>
-      <c r="G900" s="16"/>
-      <c r="H900" s="16"/>
-      <c r="I900" s="16"/>
-      <c r="J900" s="16"/>
-      <c r="K900" s="16"/>
-      <c r="L900" s="16"/>
-      <c r="M900" s="16"/>
-      <c r="N900" s="16"/>
-      <c r="O900" s="16"/>
-      <c r="P900" s="16"/>
-      <c r="Q900" s="16"/>
-      <c r="R900" s="16"/>
-      <c r="S900" s="16"/>
-      <c r="T900" s="16"/>
-      <c r="U900" s="16"/>
-      <c r="V900" s="16"/>
-      <c r="W900" s="16"/>
-      <c r="X900" s="16"/>
-      <c r="Y900" s="16"/>
-      <c r="Z900" s="16"/>
-    </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A901" s="15"/>
-      <c r="B901" s="15"/>
-      <c r="C901" s="15"/>
-      <c r="D901" s="16"/>
-      <c r="E901" s="16"/>
-      <c r="F901" s="16"/>
-      <c r="G901" s="16"/>
-      <c r="H901" s="16"/>
-      <c r="I901" s="16"/>
-      <c r="J901" s="16"/>
-      <c r="K901" s="16"/>
-      <c r="L901" s="16"/>
-      <c r="M901" s="16"/>
-      <c r="N901" s="16"/>
-      <c r="O901" s="16"/>
-      <c r="P901" s="16"/>
-      <c r="Q901" s="16"/>
-      <c r="R901" s="16"/>
-      <c r="S901" s="16"/>
-      <c r="T901" s="16"/>
-      <c r="U901" s="16"/>
-      <c r="V901" s="16"/>
-      <c r="W901" s="16"/>
-      <c r="X901" s="16"/>
-      <c r="Y901" s="16"/>
-      <c r="Z901" s="16"/>
-    </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A902" s="15"/>
-      <c r="B902" s="15"/>
-      <c r="C902" s="15"/>
-      <c r="D902" s="16"/>
-      <c r="E902" s="16"/>
-      <c r="F902" s="16"/>
-      <c r="G902" s="16"/>
-      <c r="H902" s="16"/>
-      <c r="I902" s="16"/>
-      <c r="J902" s="16"/>
-      <c r="K902" s="16"/>
-      <c r="L902" s="16"/>
-      <c r="M902" s="16"/>
-      <c r="N902" s="16"/>
-      <c r="O902" s="16"/>
-      <c r="P902" s="16"/>
-      <c r="Q902" s="16"/>
-      <c r="R902" s="16"/>
-      <c r="S902" s="16"/>
-      <c r="T902" s="16"/>
-      <c r="U902" s="16"/>
-      <c r="V902" s="16"/>
-      <c r="W902" s="16"/>
-      <c r="X902" s="16"/>
-      <c r="Y902" s="16"/>
-      <c r="Z902" s="16"/>
-    </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A903" s="15"/>
-      <c r="B903" s="15"/>
-      <c r="C903" s="15"/>
-      <c r="D903" s="16"/>
-      <c r="E903" s="16"/>
-      <c r="F903" s="16"/>
-      <c r="G903" s="16"/>
-      <c r="H903" s="16"/>
-      <c r="I903" s="16"/>
-      <c r="J903" s="16"/>
-      <c r="K903" s="16"/>
-      <c r="L903" s="16"/>
-      <c r="M903" s="16"/>
-      <c r="N903" s="16"/>
-      <c r="O903" s="16"/>
-      <c r="P903" s="16"/>
-      <c r="Q903" s="16"/>
-      <c r="R903" s="16"/>
-      <c r="S903" s="16"/>
-      <c r="T903" s="16"/>
-      <c r="U903" s="16"/>
-      <c r="V903" s="16"/>
-      <c r="W903" s="16"/>
-      <c r="X903" s="16"/>
-      <c r="Y903" s="16"/>
-      <c r="Z903" s="16"/>
-    </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A904" s="15"/>
-      <c r="B904" s="15"/>
-      <c r="C904" s="15"/>
-      <c r="D904" s="16"/>
-      <c r="E904" s="16"/>
-      <c r="F904" s="16"/>
-      <c r="G904" s="16"/>
-      <c r="H904" s="16"/>
-      <c r="I904" s="16"/>
-      <c r="J904" s="16"/>
-      <c r="K904" s="16"/>
-      <c r="L904" s="16"/>
-      <c r="M904" s="16"/>
-      <c r="N904" s="16"/>
-      <c r="O904" s="16"/>
-      <c r="P904" s="16"/>
-      <c r="Q904" s="16"/>
-      <c r="R904" s="16"/>
-      <c r="S904" s="16"/>
-      <c r="T904" s="16"/>
-      <c r="U904" s="16"/>
-      <c r="V904" s="16"/>
-      <c r="W904" s="16"/>
-      <c r="X904" s="16"/>
-      <c r="Y904" s="16"/>
-      <c r="Z904" s="16"/>
-    </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A905" s="15"/>
-      <c r="B905" s="15"/>
-      <c r="C905" s="15"/>
-      <c r="D905" s="16"/>
-      <c r="E905" s="16"/>
-      <c r="F905" s="16"/>
-      <c r="G905" s="16"/>
-      <c r="H905" s="16"/>
-      <c r="I905" s="16"/>
-      <c r="J905" s="16"/>
-      <c r="K905" s="16"/>
-      <c r="L905" s="16"/>
-      <c r="M905" s="16"/>
-      <c r="N905" s="16"/>
-      <c r="O905" s="16"/>
-      <c r="P905" s="16"/>
-      <c r="Q905" s="16"/>
-      <c r="R905" s="16"/>
-      <c r="S905" s="16"/>
-      <c r="T905" s="16"/>
-      <c r="U905" s="16"/>
-      <c r="V905" s="16"/>
-      <c r="W905" s="16"/>
-      <c r="X905" s="16"/>
-      <c r="Y905" s="16"/>
-      <c r="Z905" s="16"/>
-    </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A906" s="15"/>
-      <c r="B906" s="15"/>
-      <c r="C906" s="15"/>
-      <c r="D906" s="16"/>
-      <c r="E906" s="16"/>
-      <c r="F906" s="16"/>
-      <c r="G906" s="16"/>
-      <c r="H906" s="16"/>
-      <c r="I906" s="16"/>
-      <c r="J906" s="16"/>
-      <c r="K906" s="16"/>
-      <c r="L906" s="16"/>
-      <c r="M906" s="16"/>
-      <c r="N906" s="16"/>
-      <c r="O906" s="16"/>
-      <c r="P906" s="16"/>
-      <c r="Q906" s="16"/>
-      <c r="R906" s="16"/>
-      <c r="S906" s="16"/>
-      <c r="T906" s="16"/>
-      <c r="U906" s="16"/>
-      <c r="V906" s="16"/>
-      <c r="W906" s="16"/>
-      <c r="X906" s="16"/>
-      <c r="Y906" s="16"/>
-      <c r="Z906" s="16"/>
-    </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A907" s="15"/>
-      <c r="B907" s="15"/>
-      <c r="C907" s="15"/>
-      <c r="D907" s="16"/>
-      <c r="E907" s="16"/>
-      <c r="F907" s="16"/>
-      <c r="G907" s="16"/>
-      <c r="H907" s="16"/>
-      <c r="I907" s="16"/>
-      <c r="J907" s="16"/>
-      <c r="K907" s="16"/>
-      <c r="L907" s="16"/>
-      <c r="M907" s="16"/>
-      <c r="N907" s="16"/>
-      <c r="O907" s="16"/>
-      <c r="P907" s="16"/>
-      <c r="Q907" s="16"/>
-      <c r="R907" s="16"/>
-      <c r="S907" s="16"/>
-      <c r="T907" s="16"/>
-      <c r="U907" s="16"/>
-      <c r="V907" s="16"/>
-      <c r="W907" s="16"/>
-      <c r="X907" s="16"/>
-      <c r="Y907" s="16"/>
-      <c r="Z907" s="16"/>
-    </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A908" s="15"/>
-      <c r="B908" s="15"/>
-      <c r="C908" s="15"/>
-      <c r="D908" s="16"/>
-      <c r="E908" s="16"/>
-      <c r="F908" s="16"/>
-      <c r="G908" s="16"/>
-      <c r="H908" s="16"/>
-      <c r="I908" s="16"/>
-      <c r="J908" s="16"/>
-      <c r="K908" s="16"/>
-      <c r="L908" s="16"/>
-      <c r="M908" s="16"/>
-      <c r="N908" s="16"/>
-      <c r="O908" s="16"/>
-      <c r="P908" s="16"/>
-      <c r="Q908" s="16"/>
-      <c r="R908" s="16"/>
-      <c r="S908" s="16"/>
-      <c r="T908" s="16"/>
-      <c r="U908" s="16"/>
-      <c r="V908" s="16"/>
-      <c r="W908" s="16"/>
-      <c r="X908" s="16"/>
-      <c r="Y908" s="16"/>
-      <c r="Z908" s="16"/>
-    </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A909" s="15"/>
-      <c r="B909" s="15"/>
-      <c r="C909" s="15"/>
-      <c r="D909" s="16"/>
-      <c r="E909" s="16"/>
-      <c r="F909" s="16"/>
-      <c r="G909" s="16"/>
-      <c r="H909" s="16"/>
-      <c r="I909" s="16"/>
-      <c r="J909" s="16"/>
-      <c r="K909" s="16"/>
-      <c r="L909" s="16"/>
-      <c r="M909" s="16"/>
-      <c r="N909" s="16"/>
-      <c r="O909" s="16"/>
-      <c r="P909" s="16"/>
-      <c r="Q909" s="16"/>
-      <c r="R909" s="16"/>
-      <c r="S909" s="16"/>
-      <c r="T909" s="16"/>
-      <c r="U909" s="16"/>
-      <c r="V909" s="16"/>
-      <c r="W909" s="16"/>
-      <c r="X909" s="16"/>
-      <c r="Y909" s="16"/>
-      <c r="Z909" s="16"/>
-    </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A910" s="15"/>
-      <c r="B910" s="15"/>
-      <c r="C910" s="15"/>
-      <c r="D910" s="16"/>
-      <c r="E910" s="16"/>
-      <c r="F910" s="16"/>
-      <c r="G910" s="16"/>
-      <c r="H910" s="16"/>
-      <c r="I910" s="16"/>
-      <c r="J910" s="16"/>
-      <c r="K910" s="16"/>
-      <c r="L910" s="16"/>
-      <c r="M910" s="16"/>
-      <c r="N910" s="16"/>
-      <c r="O910" s="16"/>
-      <c r="P910" s="16"/>
-      <c r="Q910" s="16"/>
-      <c r="R910" s="16"/>
-      <c r="S910" s="16"/>
-      <c r="T910" s="16"/>
-      <c r="U910" s="16"/>
-      <c r="V910" s="16"/>
-      <c r="W910" s="16"/>
-      <c r="X910" s="16"/>
-      <c r="Y910" s="16"/>
-      <c r="Z910" s="16"/>
-    </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A911" s="15"/>
-      <c r="B911" s="15"/>
-      <c r="C911" s="15"/>
-      <c r="D911" s="16"/>
-      <c r="E911" s="16"/>
-      <c r="F911" s="16"/>
-      <c r="G911" s="16"/>
-      <c r="H911" s="16"/>
-      <c r="I911" s="16"/>
-      <c r="J911" s="16"/>
-      <c r="K911" s="16"/>
-      <c r="L911" s="16"/>
-      <c r="M911" s="16"/>
-      <c r="N911" s="16"/>
-      <c r="O911" s="16"/>
-      <c r="P911" s="16"/>
-      <c r="Q911" s="16"/>
-      <c r="R911" s="16"/>
-      <c r="S911" s="16"/>
-      <c r="T911" s="16"/>
-      <c r="U911" s="16"/>
-      <c r="V911" s="16"/>
-      <c r="W911" s="16"/>
-      <c r="X911" s="16"/>
-      <c r="Y911" s="16"/>
-      <c r="Z911" s="16"/>
-    </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A912" s="15"/>
-      <c r="B912" s="15"/>
-      <c r="C912" s="15"/>
-      <c r="D912" s="16"/>
-      <c r="E912" s="16"/>
-      <c r="F912" s="16"/>
-      <c r="G912" s="16"/>
-      <c r="H912" s="16"/>
-      <c r="I912" s="16"/>
-      <c r="J912" s="16"/>
-      <c r="K912" s="16"/>
-      <c r="L912" s="16"/>
-      <c r="M912" s="16"/>
-      <c r="N912" s="16"/>
-      <c r="O912" s="16"/>
-      <c r="P912" s="16"/>
-      <c r="Q912" s="16"/>
-      <c r="R912" s="16"/>
-      <c r="S912" s="16"/>
-      <c r="T912" s="16"/>
-      <c r="U912" s="16"/>
-      <c r="V912" s="16"/>
-      <c r="W912" s="16"/>
-      <c r="X912" s="16"/>
-      <c r="Y912" s="16"/>
-      <c r="Z912" s="16"/>
-    </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A913" s="15"/>
-      <c r="B913" s="15"/>
-      <c r="C913" s="15"/>
-      <c r="D913" s="16"/>
-      <c r="E913" s="16"/>
-      <c r="F913" s="16"/>
-      <c r="G913" s="16"/>
-      <c r="H913" s="16"/>
-      <c r="I913" s="16"/>
-      <c r="J913" s="16"/>
-      <c r="K913" s="16"/>
-      <c r="L913" s="16"/>
-      <c r="M913" s="16"/>
-      <c r="N913" s="16"/>
-      <c r="O913" s="16"/>
-      <c r="P913" s="16"/>
-      <c r="Q913" s="16"/>
-      <c r="R913" s="16"/>
-      <c r="S913" s="16"/>
-      <c r="T913" s="16"/>
-      <c r="U913" s="16"/>
-      <c r="V913" s="16"/>
-      <c r="W913" s="16"/>
-      <c r="X913" s="16"/>
-      <c r="Y913" s="16"/>
-      <c r="Z913" s="16"/>
-    </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A914" s="15"/>
-      <c r="B914" s="15"/>
-      <c r="C914" s="15"/>
-      <c r="D914" s="16"/>
-      <c r="E914" s="16"/>
-      <c r="F914" s="16"/>
-      <c r="G914" s="16"/>
-      <c r="H914" s="16"/>
-      <c r="I914" s="16"/>
-      <c r="J914" s="16"/>
-      <c r="K914" s="16"/>
-      <c r="L914" s="16"/>
-      <c r="M914" s="16"/>
-      <c r="N914" s="16"/>
-      <c r="O914" s="16"/>
-      <c r="P914" s="16"/>
-      <c r="Q914" s="16"/>
-      <c r="R914" s="16"/>
-      <c r="S914" s="16"/>
-      <c r="T914" s="16"/>
-      <c r="U914" s="16"/>
-      <c r="V914" s="16"/>
-      <c r="W914" s="16"/>
-      <c r="X914" s="16"/>
-      <c r="Y914" s="16"/>
-      <c r="Z914" s="16"/>
-    </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A915" s="15"/>
-      <c r="B915" s="15"/>
-      <c r="C915" s="15"/>
-      <c r="D915" s="16"/>
-      <c r="E915" s="16"/>
-      <c r="F915" s="16"/>
-      <c r="G915" s="16"/>
-      <c r="H915" s="16"/>
-      <c r="I915" s="16"/>
-      <c r="J915" s="16"/>
-      <c r="K915" s="16"/>
-      <c r="L915" s="16"/>
-      <c r="M915" s="16"/>
-      <c r="N915" s="16"/>
-      <c r="O915" s="16"/>
-      <c r="P915" s="16"/>
-      <c r="Q915" s="16"/>
-      <c r="R915" s="16"/>
-      <c r="S915" s="16"/>
-      <c r="T915" s="16"/>
-      <c r="U915" s="16"/>
-      <c r="V915" s="16"/>
-      <c r="W915" s="16"/>
-      <c r="X915" s="16"/>
-      <c r="Y915" s="16"/>
-      <c r="Z915" s="16"/>
-    </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A916" s="15"/>
-      <c r="B916" s="15"/>
-      <c r="C916" s="15"/>
-      <c r="D916" s="16"/>
-      <c r="E916" s="16"/>
-      <c r="F916" s="16"/>
-      <c r="G916" s="16"/>
-      <c r="H916" s="16"/>
-      <c r="I916" s="16"/>
-      <c r="J916" s="16"/>
-      <c r="K916" s="16"/>
-      <c r="L916" s="16"/>
-      <c r="M916" s="16"/>
-      <c r="N916" s="16"/>
-      <c r="O916" s="16"/>
-      <c r="P916" s="16"/>
-      <c r="Q916" s="16"/>
-      <c r="R916" s="16"/>
-      <c r="S916" s="16"/>
-      <c r="T916" s="16"/>
-      <c r="U916" s="16"/>
-      <c r="V916" s="16"/>
-      <c r="W916" s="16"/>
-      <c r="X916" s="16"/>
-      <c r="Y916" s="16"/>
-      <c r="Z916" s="16"/>
-    </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A917" s="15"/>
-      <c r="B917" s="15"/>
-      <c r="C917" s="15"/>
-      <c r="D917" s="16"/>
-      <c r="E917" s="16"/>
-      <c r="F917" s="16"/>
-      <c r="G917" s="16"/>
-      <c r="H917" s="16"/>
-      <c r="I917" s="16"/>
-      <c r="J917" s="16"/>
-      <c r="K917" s="16"/>
-      <c r="L917" s="16"/>
-      <c r="M917" s="16"/>
-      <c r="N917" s="16"/>
-      <c r="O917" s="16"/>
-      <c r="P917" s="16"/>
-      <c r="Q917" s="16"/>
-      <c r="R917" s="16"/>
-      <c r="S917" s="16"/>
-      <c r="T917" s="16"/>
-      <c r="U917" s="16"/>
-      <c r="V917" s="16"/>
-      <c r="W917" s="16"/>
-      <c r="X917" s="16"/>
-      <c r="Y917" s="16"/>
-      <c r="Z917" s="16"/>
-    </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A918" s="15"/>
-      <c r="B918" s="15"/>
-      <c r="C918" s="15"/>
-      <c r="D918" s="16"/>
-      <c r="E918" s="16"/>
-      <c r="F918" s="16"/>
-      <c r="G918" s="16"/>
-      <c r="H918" s="16"/>
-      <c r="I918" s="16"/>
-      <c r="J918" s="16"/>
-      <c r="K918" s="16"/>
-      <c r="L918" s="16"/>
-      <c r="M918" s="16"/>
-      <c r="N918" s="16"/>
-      <c r="O918" s="16"/>
-      <c r="P918" s="16"/>
-      <c r="Q918" s="16"/>
-      <c r="R918" s="16"/>
-      <c r="S918" s="16"/>
-      <c r="T918" s="16"/>
-      <c r="U918" s="16"/>
-      <c r="V918" s="16"/>
-      <c r="W918" s="16"/>
-      <c r="X918" s="16"/>
-      <c r="Y918" s="16"/>
-      <c r="Z918" s="16"/>
-    </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A919" s="15"/>
-      <c r="B919" s="15"/>
-      <c r="C919" s="15"/>
-      <c r="D919" s="16"/>
-      <c r="E919" s="16"/>
-      <c r="F919" s="16"/>
-      <c r="G919" s="16"/>
-      <c r="H919" s="16"/>
-      <c r="I919" s="16"/>
-      <c r="J919" s="16"/>
-      <c r="K919" s="16"/>
-      <c r="L919" s="16"/>
-      <c r="M919" s="16"/>
-      <c r="N919" s="16"/>
-      <c r="O919" s="16"/>
-      <c r="P919" s="16"/>
-      <c r="Q919" s="16"/>
-      <c r="R919" s="16"/>
-      <c r="S919" s="16"/>
-      <c r="T919" s="16"/>
-      <c r="U919" s="16"/>
-      <c r="V919" s="16"/>
-      <c r="W919" s="16"/>
-      <c r="X919" s="16"/>
-      <c r="Y919" s="16"/>
-      <c r="Z919" s="16"/>
-    </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A920" s="15"/>
-      <c r="B920" s="15"/>
-      <c r="C920" s="15"/>
-      <c r="D920" s="16"/>
-      <c r="E920" s="16"/>
-      <c r="F920" s="16"/>
-      <c r="G920" s="16"/>
-      <c r="H920" s="16"/>
-      <c r="I920" s="16"/>
-      <c r="J920" s="16"/>
-      <c r="K920" s="16"/>
-      <c r="L920" s="16"/>
-      <c r="M920" s="16"/>
-      <c r="N920" s="16"/>
-      <c r="O920" s="16"/>
-      <c r="P920" s="16"/>
-      <c r="Q920" s="16"/>
-      <c r="R920" s="16"/>
-      <c r="S920" s="16"/>
-      <c r="T920" s="16"/>
-      <c r="U920" s="16"/>
-      <c r="V920" s="16"/>
-      <c r="W920" s="16"/>
-      <c r="X920" s="16"/>
-      <c r="Y920" s="16"/>
-      <c r="Z920" s="16"/>
-    </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A921" s="15"/>
-      <c r="B921" s="15"/>
-      <c r="C921" s="15"/>
-      <c r="D921" s="16"/>
-      <c r="E921" s="16"/>
-      <c r="F921" s="16"/>
-      <c r="G921" s="16"/>
-      <c r="H921" s="16"/>
-      <c r="I921" s="16"/>
-      <c r="J921" s="16"/>
-      <c r="K921" s="16"/>
-      <c r="L921" s="16"/>
-      <c r="M921" s="16"/>
-      <c r="N921" s="16"/>
-      <c r="O921" s="16"/>
-      <c r="P921" s="16"/>
-      <c r="Q921" s="16"/>
-      <c r="R921" s="16"/>
-      <c r="S921" s="16"/>
-      <c r="T921" s="16"/>
-      <c r="U921" s="16"/>
-      <c r="V921" s="16"/>
-      <c r="W921" s="16"/>
-      <c r="X921" s="16"/>
-      <c r="Y921" s="16"/>
-      <c r="Z921" s="16"/>
-    </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A922" s="15"/>
-      <c r="B922" s="15"/>
-      <c r="C922" s="15"/>
-      <c r="D922" s="16"/>
-      <c r="E922" s="16"/>
-      <c r="F922" s="16"/>
-      <c r="G922" s="16"/>
-      <c r="H922" s="16"/>
-      <c r="I922" s="16"/>
-      <c r="J922" s="16"/>
-      <c r="K922" s="16"/>
-      <c r="L922" s="16"/>
-      <c r="M922" s="16"/>
-      <c r="N922" s="16"/>
-      <c r="O922" s="16"/>
-      <c r="P922" s="16"/>
-      <c r="Q922" s="16"/>
-      <c r="R922" s="16"/>
-      <c r="S922" s="16"/>
-      <c r="T922" s="16"/>
-      <c r="U922" s="16"/>
-      <c r="V922" s="16"/>
-      <c r="W922" s="16"/>
-      <c r="X922" s="16"/>
-      <c r="Y922" s="16"/>
-      <c r="Z922" s="16"/>
-    </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A923" s="15"/>
-      <c r="B923" s="15"/>
-      <c r="C923" s="15"/>
-      <c r="D923" s="16"/>
-      <c r="E923" s="16"/>
-      <c r="F923" s="16"/>
-      <c r="G923" s="16"/>
-      <c r="H923" s="16"/>
-      <c r="I923" s="16"/>
-      <c r="J923" s="16"/>
-      <c r="K923" s="16"/>
-      <c r="L923" s="16"/>
-      <c r="M923" s="16"/>
-      <c r="N923" s="16"/>
-      <c r="O923" s="16"/>
-      <c r="P923" s="16"/>
-      <c r="Q923" s="16"/>
-      <c r="R923" s="16"/>
-      <c r="S923" s="16"/>
-      <c r="T923" s="16"/>
-      <c r="U923" s="16"/>
-      <c r="V923" s="16"/>
-      <c r="W923" s="16"/>
-      <c r="X923" s="16"/>
-      <c r="Y923" s="16"/>
-      <c r="Z923" s="16"/>
-    </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A924" s="15"/>
-      <c r="B924" s="15"/>
-      <c r="C924" s="15"/>
-      <c r="D924" s="16"/>
-      <c r="E924" s="16"/>
-      <c r="F924" s="16"/>
-      <c r="G924" s="16"/>
-      <c r="H924" s="16"/>
-      <c r="I924" s="16"/>
-      <c r="J924" s="16"/>
-      <c r="K924" s="16"/>
-      <c r="L924" s="16"/>
-      <c r="M924" s="16"/>
-      <c r="N924" s="16"/>
-      <c r="O924" s="16"/>
-      <c r="P924" s="16"/>
-      <c r="Q924" s="16"/>
-      <c r="R924" s="16"/>
-      <c r="S924" s="16"/>
-      <c r="T924" s="16"/>
-      <c r="U924" s="16"/>
-      <c r="V924" s="16"/>
-      <c r="W924" s="16"/>
-      <c r="X924" s="16"/>
-      <c r="Y924" s="16"/>
-      <c r="Z924" s="16"/>
-    </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A925" s="15"/>
-      <c r="B925" s="15"/>
-      <c r="C925" s="15"/>
-      <c r="D925" s="16"/>
-      <c r="E925" s="16"/>
-      <c r="F925" s="16"/>
-      <c r="G925" s="16"/>
-      <c r="H925" s="16"/>
-      <c r="I925" s="16"/>
-      <c r="J925" s="16"/>
-      <c r="K925" s="16"/>
-      <c r="L925" s="16"/>
-      <c r="M925" s="16"/>
-      <c r="N925" s="16"/>
-      <c r="O925" s="16"/>
-      <c r="P925" s="16"/>
-      <c r="Q925" s="16"/>
-      <c r="R925" s="16"/>
-      <c r="S925" s="16"/>
-      <c r="T925" s="16"/>
-      <c r="U925" s="16"/>
-      <c r="V925" s="16"/>
-      <c r="W925" s="16"/>
-      <c r="X925" s="16"/>
-      <c r="Y925" s="16"/>
-      <c r="Z925" s="16"/>
-    </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A926" s="15"/>
-      <c r="B926" s="15"/>
-      <c r="C926" s="15"/>
-      <c r="D926" s="16"/>
-      <c r="E926" s="16"/>
-      <c r="F926" s="16"/>
-      <c r="G926" s="16"/>
-      <c r="H926" s="16"/>
-      <c r="I926" s="16"/>
-      <c r="J926" s="16"/>
-      <c r="K926" s="16"/>
-      <c r="L926" s="16"/>
-      <c r="M926" s="16"/>
-      <c r="N926" s="16"/>
-      <c r="O926" s="16"/>
-      <c r="P926" s="16"/>
-      <c r="Q926" s="16"/>
-      <c r="R926" s="16"/>
-      <c r="S926" s="16"/>
-      <c r="T926" s="16"/>
-      <c r="U926" s="16"/>
-      <c r="V926" s="16"/>
-      <c r="W926" s="16"/>
-      <c r="X926" s="16"/>
-      <c r="Y926" s="16"/>
-      <c r="Z926" s="16"/>
-    </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A927" s="15"/>
-      <c r="B927" s="15"/>
-      <c r="C927" s="15"/>
-      <c r="D927" s="16"/>
-      <c r="E927" s="16"/>
-      <c r="F927" s="16"/>
-      <c r="G927" s="16"/>
-      <c r="H927" s="16"/>
-      <c r="I927" s="16"/>
-      <c r="J927" s="16"/>
-      <c r="K927" s="16"/>
-      <c r="L927" s="16"/>
-      <c r="M927" s="16"/>
-      <c r="N927" s="16"/>
-      <c r="O927" s="16"/>
-      <c r="P927" s="16"/>
-      <c r="Q927" s="16"/>
-      <c r="R927" s="16"/>
-      <c r="S927" s="16"/>
-      <c r="T927" s="16"/>
-      <c r="U927" s="16"/>
-      <c r="V927" s="16"/>
-      <c r="W927" s="16"/>
-      <c r="X927" s="16"/>
-      <c r="Y927" s="16"/>
-      <c r="Z927" s="16"/>
-    </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A928" s="15"/>
-      <c r="B928" s="15"/>
-      <c r="C928" s="15"/>
-      <c r="D928" s="16"/>
-      <c r="E928" s="16"/>
-      <c r="F928" s="16"/>
-      <c r="G928" s="16"/>
-      <c r="H928" s="16"/>
-      <c r="I928" s="16"/>
-      <c r="J928" s="16"/>
-      <c r="K928" s="16"/>
-      <c r="L928" s="16"/>
-      <c r="M928" s="16"/>
-      <c r="N928" s="16"/>
-      <c r="O928" s="16"/>
-      <c r="P928" s="16"/>
-      <c r="Q928" s="16"/>
-      <c r="R928" s="16"/>
-      <c r="S928" s="16"/>
-      <c r="T928" s="16"/>
-      <c r="U928" s="16"/>
-      <c r="V928" s="16"/>
-      <c r="W928" s="16"/>
-      <c r="X928" s="16"/>
-      <c r="Y928" s="16"/>
-      <c r="Z928" s="16"/>
-    </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A929" s="15"/>
-      <c r="B929" s="15"/>
-      <c r="C929" s="15"/>
-      <c r="D929" s="16"/>
-      <c r="E929" s="16"/>
-      <c r="F929" s="16"/>
-      <c r="G929" s="16"/>
-      <c r="H929" s="16"/>
-      <c r="I929" s="16"/>
-      <c r="J929" s="16"/>
-      <c r="K929" s="16"/>
-      <c r="L929" s="16"/>
-      <c r="M929" s="16"/>
-      <c r="N929" s="16"/>
-      <c r="O929" s="16"/>
-      <c r="P929" s="16"/>
-      <c r="Q929" s="16"/>
-      <c r="R929" s="16"/>
-      <c r="S929" s="16"/>
-      <c r="T929" s="16"/>
-      <c r="U929" s="16"/>
-      <c r="V929" s="16"/>
-      <c r="W929" s="16"/>
-      <c r="X929" s="16"/>
-      <c r="Y929" s="16"/>
-      <c r="Z929" s="16"/>
-    </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A930" s="15"/>
-      <c r="B930" s="15"/>
-      <c r="C930" s="15"/>
-      <c r="D930" s="16"/>
-      <c r="E930" s="16"/>
-      <c r="F930" s="16"/>
-      <c r="G930" s="16"/>
-      <c r="H930" s="16"/>
-      <c r="I930" s="16"/>
-      <c r="J930" s="16"/>
-      <c r="K930" s="16"/>
-      <c r="L930" s="16"/>
-      <c r="M930" s="16"/>
-      <c r="N930" s="16"/>
-      <c r="O930" s="16"/>
-      <c r="P930" s="16"/>
-      <c r="Q930" s="16"/>
-      <c r="R930" s="16"/>
-      <c r="S930" s="16"/>
-      <c r="T930" s="16"/>
-      <c r="U930" s="16"/>
-      <c r="V930" s="16"/>
-      <c r="W930" s="16"/>
-      <c r="X930" s="16"/>
-      <c r="Y930" s="16"/>
-      <c r="Z930" s="16"/>
-    </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A931" s="15"/>
-      <c r="B931" s="15"/>
-      <c r="C931" s="15"/>
-      <c r="D931" s="16"/>
-      <c r="E931" s="16"/>
-      <c r="F931" s="16"/>
-      <c r="G931" s="16"/>
-      <c r="H931" s="16"/>
-      <c r="I931" s="16"/>
-      <c r="J931" s="16"/>
-      <c r="K931" s="16"/>
-      <c r="L931" s="16"/>
-      <c r="M931" s="16"/>
-      <c r="N931" s="16"/>
-      <c r="O931" s="16"/>
-      <c r="P931" s="16"/>
-      <c r="Q931" s="16"/>
-      <c r="R931" s="16"/>
-      <c r="S931" s="16"/>
-      <c r="T931" s="16"/>
-      <c r="U931" s="16"/>
-      <c r="V931" s="16"/>
-      <c r="W931" s="16"/>
-      <c r="X931" s="16"/>
-      <c r="Y931" s="16"/>
-      <c r="Z931" s="16"/>
-    </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="15"/>
-      <c r="B932" s="15"/>
-      <c r="C932" s="15"/>
-      <c r="D932" s="16"/>
-      <c r="E932" s="16"/>
-      <c r="F932" s="16"/>
-      <c r="G932" s="16"/>
-      <c r="H932" s="16"/>
-      <c r="I932" s="16"/>
-      <c r="J932" s="16"/>
-      <c r="K932" s="16"/>
-      <c r="L932" s="16"/>
-      <c r="M932" s="16"/>
-      <c r="N932" s="16"/>
-      <c r="O932" s="16"/>
-      <c r="P932" s="16"/>
-      <c r="Q932" s="16"/>
-      <c r="R932" s="16"/>
-      <c r="S932" s="16"/>
-      <c r="T932" s="16"/>
-      <c r="U932" s="16"/>
-      <c r="V932" s="16"/>
-      <c r="W932" s="16"/>
-      <c r="X932" s="16"/>
-      <c r="Y932" s="16"/>
-      <c r="Z932" s="16"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/data-raw/metadata/camp_environmental_metadata.xlsx
+++ b/data-raw/metadata/camp_environmental_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F8CA86-170C-8043-B962-0CA85D333872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B337CF0-EAF9-4240-9D74-720F366ED451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,9 +169,6 @@
     <t>Code for name of the sampling site</t>
   </si>
   <si>
-    <t>Code for position of trap within the site</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>Knights Landing RST Program</t>
   </si>
   <si>
-    <t>trapPosition</t>
-  </si>
-  <si>
     <t>dischargeUnit</t>
   </si>
   <si>
@@ -360,6 +354,12 @@
   <si>
     <t>The sample gear used. Levels = c("Electronic meter", NA, "Not recorded", "Electronic depth finder", 
 "Analog hand-held thermometer", "Gauging station (non-USGS)")</t>
+  </si>
+  <si>
+    <t>trapPositionID</t>
+  </si>
+  <si>
+    <t>Code for position of trap within the site. Levels = c(63004, 63003)</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,7 @@
   <dimension ref="A1:Z948"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>28</v>
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>28</v>
@@ -1002,7 +1002,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
@@ -1050,7 +1050,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>28</v>
@@ -1098,7 +1098,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
@@ -1151,10 +1151,10 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1195,10 +1195,10 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1482,10 +1482,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -1672,10 +1672,10 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
@@ -27618,13 +27618,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -27655,7 +27655,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -27689,7 +27689,7 @@
         <v>3000</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>45</v>
@@ -27723,7 +27723,7 @@
         <v>44000</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>45</v>
@@ -27757,7 +27757,7 @@
         <v>52000</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>45</v>
@@ -27791,7 +27791,7 @@
         <v>51000</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>45</v>
@@ -27825,7 +27825,7 @@
         <v>5000</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>45</v>
@@ -27859,7 +27859,7 @@
         <v>46000</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>45</v>
@@ -27893,7 +27893,7 @@
         <v>4000</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>45</v>
@@ -27927,7 +27927,7 @@
         <v>45000</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>45</v>
@@ -27961,7 +27961,7 @@
         <v>252</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>45</v>
@@ -27995,7 +27995,7 @@
         <v>251</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>45</v>
@@ -28029,7 +28029,7 @@
         <v>255</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>45</v>
@@ -28063,7 +28063,7 @@
         <v>53000</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>45</v>
@@ -28097,7 +28097,7 @@
         <v>54000</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>45</v>
@@ -28131,7 +28131,7 @@
         <v>55000</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>45</v>
@@ -28165,7 +28165,7 @@
         <v>56000</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>45</v>
@@ -28199,7 +28199,7 @@
         <v>50000</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>45</v>
@@ -28233,7 +28233,7 @@
         <v>7000</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>45</v>
@@ -28267,7 +28267,7 @@
         <v>2000</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>45</v>
@@ -28301,7 +28301,7 @@
         <v>43000</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>45</v>
@@ -28335,7 +28335,7 @@
         <v>6000</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>45</v>
@@ -28369,7 +28369,7 @@
         <v>47000</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>45</v>
@@ -28403,7 +28403,7 @@
         <v>90000</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>45</v>
@@ -28437,7 +28437,7 @@
         <v>253</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>45</v>
@@ -28471,7 +28471,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>43</v>
@@ -28505,7 +28505,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>43</v>
@@ -28539,7 +28539,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>43</v>
@@ -28573,7 +28573,7 @@
         <v>252</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>43</v>
@@ -28607,7 +28607,7 @@
         <v>251</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>43</v>
@@ -28641,7 +28641,7 @@
         <v>255</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>43</v>
@@ -28675,7 +28675,7 @@
         <v>250</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>43</v>
@@ -28709,7 +28709,7 @@
         <v>254</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>43</v>
@@ -28743,7 +28743,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>43</v>
@@ -28777,7 +28777,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>43</v>
@@ -28811,7 +28811,7 @@
         <v>253</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>43</v>
@@ -28845,7 +28845,7 @@
         <v>3</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>43</v>

--- a/data-raw/metadata/camp_environmental_metadata.xlsx
+++ b/data-raw/metadata/camp_environmental_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B337CF0-EAF9-4240-9D74-720F366ED451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70206C4-F2C5-F042-9C70-E0D317B9CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -157,12 +157,6 @@
     <t>Date and time of day associated with the trap visit. Definition varies based on visitType (For visitTypeID=1, 2, or 3 this is the date and the time of day the trap began fishing. For visitTypeID=4, 5, or 6 this is the date and the time of day of the end of the visit.)</t>
   </si>
   <si>
-    <t>visitTypeID</t>
-  </si>
-  <si>
-    <t>Code for work that was done during visit to trap</t>
-  </si>
-  <si>
     <t>siteID</t>
   </si>
   <si>
@@ -245,33 +239,6 @@
   </si>
   <si>
     <t>Unknown</t>
-  </si>
-  <si>
-    <t>Not applicable (n/a)</t>
-  </si>
-  <si>
-    <t>Continue trapping</t>
-  </si>
-  <si>
-    <t>Drive-by only</t>
-  </si>
-  <si>
-    <t>End trapping</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>See Comments</t>
-  </si>
-  <si>
-    <t>Service/adjust/clean trap</t>
-  </si>
-  <si>
-    <t>Start trap &amp; begin trapping</t>
-  </si>
-  <si>
-    <t>Unplanned restart</t>
   </si>
   <si>
     <t>see unit column</t>
@@ -360,6 +327,14 @@
   </si>
   <si>
     <t>Code for position of trap within the site. Levels = c(63004, 63003)</t>
+  </si>
+  <si>
+    <t>Work that was done during visit to trap. Levels = c("Continue trapping", "End trapping", "Start trap &amp; begin trapping", 
+"Unplanned restart", "Service/adjust/clean trap", "Drive-by only"
+)</t>
+  </si>
+  <si>
+    <t>visitType</t>
   </si>
 </sst>
 </file>
@@ -695,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z948"/>
+  <dimension ref="A1:Z947"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -906,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>28</v>
@@ -954,7 +929,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>28</v>
@@ -1002,7 +977,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
@@ -1050,7 +1025,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>28</v>
@@ -1098,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
@@ -1151,10 +1126,10 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="17" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1195,10 +1170,10 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="17" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1234,9 +1209,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1254,10 +1229,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1266,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -1292,10 +1267,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1310,9 +1285,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1330,10 +1305,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1368,10 +1343,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1406,10 +1381,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1444,10 +1419,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1482,10 +1457,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
@@ -1520,10 +1495,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
@@ -1558,10 +1533,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>15</v>
@@ -1596,10 +1571,10 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
@@ -1634,10 +1609,10 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>15</v>
@@ -1671,16 +1646,16 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>95</v>
+      <c r="A24" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -27552,46 +27527,18 @@
       <c r="Y947" s="1"/>
       <c r="Z947" s="1"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A948" s="1"/>
-      <c r="B948" s="1"/>
-      <c r="C948" s="1"/>
-      <c r="D948" s="2"/>
-      <c r="E948" s="1"/>
-      <c r="F948" s="3"/>
-      <c r="G948" s="3"/>
-      <c r="H948" s="3"/>
-      <c r="I948" s="2"/>
-      <c r="J948" s="3"/>
-      <c r="K948" s="2"/>
-      <c r="L948" s="3"/>
-      <c r="M948" s="3"/>
-      <c r="N948" s="1"/>
-      <c r="O948" s="1"/>
-      <c r="P948" s="1"/>
-      <c r="Q948" s="1"/>
-      <c r="R948" s="1"/>
-      <c r="S948" s="1"/>
-      <c r="T948" s="1"/>
-      <c r="U948" s="1"/>
-      <c r="V948" s="1"/>
-      <c r="W948" s="1"/>
-      <c r="X948" s="1"/>
-      <c r="Y948" s="1"/>
-      <c r="Z948" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E15 E16:E948" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E947" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F15 F16:F948" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F947" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C15 C16:C948" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C947" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H15 H16:H948" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H947" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27602,10 +27549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z842"/>
+  <dimension ref="A1:Z830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27618,13 +27565,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -27655,7 +27602,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -27689,10 +27636,10 @@
         <v>3000</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -27723,10 +27670,10 @@
         <v>44000</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -27757,10 +27704,10 @@
         <v>52000</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
@@ -27791,10 +27738,10 @@
         <v>51000</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -27825,10 +27772,10 @@
         <v>5000</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -27859,10 +27806,10 @@
         <v>46000</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
@@ -27893,10 +27840,10 @@
         <v>4000</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -27927,10 +27874,10 @@
         <v>45000</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -27961,10 +27908,10 @@
         <v>252</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -27995,10 +27942,10 @@
         <v>251</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -28029,10 +27976,10 @@
         <v>255</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -28063,10 +28010,10 @@
         <v>53000</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -28097,10 +28044,10 @@
         <v>54000</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -28131,10 +28078,10 @@
         <v>55000</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -28165,10 +28112,10 @@
         <v>56000</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -28199,10 +28146,10 @@
         <v>50000</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -28233,10 +28180,10 @@
         <v>7000</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="16"/>
@@ -28267,10 +28214,10 @@
         <v>2000</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16"/>
@@ -28301,10 +28248,10 @@
         <v>43000</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -28335,10 +28282,10 @@
         <v>6000</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -28369,10 +28316,10 @@
         <v>47000</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -28403,10 +28350,10 @@
         <v>90000</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -28437,10 +28384,10 @@
         <v>253</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -28467,15 +28414,9 @@
       <c r="Z25" s="16"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
-        <v>2</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -28501,15 +28442,9 @@
       <c r="Z26" s="16"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
-        <v>5</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -28535,15 +28470,9 @@
       <c r="Z27" s="16"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
-        <v>4</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -28569,15 +28498,9 @@
       <c r="Z28" s="16"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
-        <v>252</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -28603,15 +28526,9 @@
       <c r="Z29" s="16"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
-        <v>251</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -28637,15 +28554,9 @@
       <c r="Z30" s="16"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
-        <v>255</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -28671,15 +28582,9 @@
       <c r="Z31" s="16"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
-        <v>250</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -28705,15 +28610,9 @@
       <c r="Z32" s="16"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
-        <v>254</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -28739,15 +28638,9 @@
       <c r="Z33" s="16"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
-        <v>6</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -28773,15 +28666,9 @@
       <c r="Z34" s="16"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
-        <v>1</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -28807,15 +28694,9 @@
       <c r="Z35" s="16"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
-        <v>253</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -28841,15 +28722,9 @@
       <c r="Z36" s="16"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
-        <v>3</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>43</v>
-      </c>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -51078,342 +50953,6 @@
       <c r="Y830" s="16"/>
       <c r="Z830" s="16"/>
     </row>
-    <row r="831" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A831" s="15"/>
-      <c r="B831" s="15"/>
-      <c r="C831" s="15"/>
-      <c r="D831" s="16"/>
-      <c r="E831" s="16"/>
-      <c r="F831" s="16"/>
-      <c r="G831" s="16"/>
-      <c r="H831" s="16"/>
-      <c r="I831" s="16"/>
-      <c r="J831" s="16"/>
-      <c r="K831" s="16"/>
-      <c r="L831" s="16"/>
-      <c r="M831" s="16"/>
-      <c r="N831" s="16"/>
-      <c r="O831" s="16"/>
-      <c r="P831" s="16"/>
-      <c r="Q831" s="16"/>
-      <c r="R831" s="16"/>
-      <c r="S831" s="16"/>
-      <c r="T831" s="16"/>
-      <c r="U831" s="16"/>
-      <c r="V831" s="16"/>
-      <c r="W831" s="16"/>
-      <c r="X831" s="16"/>
-      <c r="Y831" s="16"/>
-      <c r="Z831" s="16"/>
-    </row>
-    <row r="832" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A832" s="15"/>
-      <c r="B832" s="15"/>
-      <c r="C832" s="15"/>
-      <c r="D832" s="16"/>
-      <c r="E832" s="16"/>
-      <c r="F832" s="16"/>
-      <c r="G832" s="16"/>
-      <c r="H832" s="16"/>
-      <c r="I832" s="16"/>
-      <c r="J832" s="16"/>
-      <c r="K832" s="16"/>
-      <c r="L832" s="16"/>
-      <c r="M832" s="16"/>
-      <c r="N832" s="16"/>
-      <c r="O832" s="16"/>
-      <c r="P832" s="16"/>
-      <c r="Q832" s="16"/>
-      <c r="R832" s="16"/>
-      <c r="S832" s="16"/>
-      <c r="T832" s="16"/>
-      <c r="U832" s="16"/>
-      <c r="V832" s="16"/>
-      <c r="W832" s="16"/>
-      <c r="X832" s="16"/>
-      <c r="Y832" s="16"/>
-      <c r="Z832" s="16"/>
-    </row>
-    <row r="833" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A833" s="15"/>
-      <c r="B833" s="15"/>
-      <c r="C833" s="15"/>
-      <c r="D833" s="16"/>
-      <c r="E833" s="16"/>
-      <c r="F833" s="16"/>
-      <c r="G833" s="16"/>
-      <c r="H833" s="16"/>
-      <c r="I833" s="16"/>
-      <c r="J833" s="16"/>
-      <c r="K833" s="16"/>
-      <c r="L833" s="16"/>
-      <c r="M833" s="16"/>
-      <c r="N833" s="16"/>
-      <c r="O833" s="16"/>
-      <c r="P833" s="16"/>
-      <c r="Q833" s="16"/>
-      <c r="R833" s="16"/>
-      <c r="S833" s="16"/>
-      <c r="T833" s="16"/>
-      <c r="U833" s="16"/>
-      <c r="V833" s="16"/>
-      <c r="W833" s="16"/>
-      <c r="X833" s="16"/>
-      <c r="Y833" s="16"/>
-      <c r="Z833" s="16"/>
-    </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A834" s="15"/>
-      <c r="B834" s="15"/>
-      <c r="C834" s="15"/>
-      <c r="D834" s="16"/>
-      <c r="E834" s="16"/>
-      <c r="F834" s="16"/>
-      <c r="G834" s="16"/>
-      <c r="H834" s="16"/>
-      <c r="I834" s="16"/>
-      <c r="J834" s="16"/>
-      <c r="K834" s="16"/>
-      <c r="L834" s="16"/>
-      <c r="M834" s="16"/>
-      <c r="N834" s="16"/>
-      <c r="O834" s="16"/>
-      <c r="P834" s="16"/>
-      <c r="Q834" s="16"/>
-      <c r="R834" s="16"/>
-      <c r="S834" s="16"/>
-      <c r="T834" s="16"/>
-      <c r="U834" s="16"/>
-      <c r="V834" s="16"/>
-      <c r="W834" s="16"/>
-      <c r="X834" s="16"/>
-      <c r="Y834" s="16"/>
-      <c r="Z834" s="16"/>
-    </row>
-    <row r="835" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A835" s="15"/>
-      <c r="B835" s="15"/>
-      <c r="C835" s="15"/>
-      <c r="D835" s="16"/>
-      <c r="E835" s="16"/>
-      <c r="F835" s="16"/>
-      <c r="G835" s="16"/>
-      <c r="H835" s="16"/>
-      <c r="I835" s="16"/>
-      <c r="J835" s="16"/>
-      <c r="K835" s="16"/>
-      <c r="L835" s="16"/>
-      <c r="M835" s="16"/>
-      <c r="N835" s="16"/>
-      <c r="O835" s="16"/>
-      <c r="P835" s="16"/>
-      <c r="Q835" s="16"/>
-      <c r="R835" s="16"/>
-      <c r="S835" s="16"/>
-      <c r="T835" s="16"/>
-      <c r="U835" s="16"/>
-      <c r="V835" s="16"/>
-      <c r="W835" s="16"/>
-      <c r="X835" s="16"/>
-      <c r="Y835" s="16"/>
-      <c r="Z835" s="16"/>
-    </row>
-    <row r="836" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A836" s="15"/>
-      <c r="B836" s="15"/>
-      <c r="C836" s="15"/>
-      <c r="D836" s="16"/>
-      <c r="E836" s="16"/>
-      <c r="F836" s="16"/>
-      <c r="G836" s="16"/>
-      <c r="H836" s="16"/>
-      <c r="I836" s="16"/>
-      <c r="J836" s="16"/>
-      <c r="K836" s="16"/>
-      <c r="L836" s="16"/>
-      <c r="M836" s="16"/>
-      <c r="N836" s="16"/>
-      <c r="O836" s="16"/>
-      <c r="P836" s="16"/>
-      <c r="Q836" s="16"/>
-      <c r="R836" s="16"/>
-      <c r="S836" s="16"/>
-      <c r="T836" s="16"/>
-      <c r="U836" s="16"/>
-      <c r="V836" s="16"/>
-      <c r="W836" s="16"/>
-      <c r="X836" s="16"/>
-      <c r="Y836" s="16"/>
-      <c r="Z836" s="16"/>
-    </row>
-    <row r="837" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A837" s="15"/>
-      <c r="B837" s="15"/>
-      <c r="C837" s="15"/>
-      <c r="D837" s="16"/>
-      <c r="E837" s="16"/>
-      <c r="F837" s="16"/>
-      <c r="G837" s="16"/>
-      <c r="H837" s="16"/>
-      <c r="I837" s="16"/>
-      <c r="J837" s="16"/>
-      <c r="K837" s="16"/>
-      <c r="L837" s="16"/>
-      <c r="M837" s="16"/>
-      <c r="N837" s="16"/>
-      <c r="O837" s="16"/>
-      <c r="P837" s="16"/>
-      <c r="Q837" s="16"/>
-      <c r="R837" s="16"/>
-      <c r="S837" s="16"/>
-      <c r="T837" s="16"/>
-      <c r="U837" s="16"/>
-      <c r="V837" s="16"/>
-      <c r="W837" s="16"/>
-      <c r="X837" s="16"/>
-      <c r="Y837" s="16"/>
-      <c r="Z837" s="16"/>
-    </row>
-    <row r="838" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A838" s="15"/>
-      <c r="B838" s="15"/>
-      <c r="C838" s="15"/>
-      <c r="D838" s="16"/>
-      <c r="E838" s="16"/>
-      <c r="F838" s="16"/>
-      <c r="G838" s="16"/>
-      <c r="H838" s="16"/>
-      <c r="I838" s="16"/>
-      <c r="J838" s="16"/>
-      <c r="K838" s="16"/>
-      <c r="L838" s="16"/>
-      <c r="M838" s="16"/>
-      <c r="N838" s="16"/>
-      <c r="O838" s="16"/>
-      <c r="P838" s="16"/>
-      <c r="Q838" s="16"/>
-      <c r="R838" s="16"/>
-      <c r="S838" s="16"/>
-      <c r="T838" s="16"/>
-      <c r="U838" s="16"/>
-      <c r="V838" s="16"/>
-      <c r="W838" s="16"/>
-      <c r="X838" s="16"/>
-      <c r="Y838" s="16"/>
-      <c r="Z838" s="16"/>
-    </row>
-    <row r="839" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A839" s="15"/>
-      <c r="B839" s="15"/>
-      <c r="C839" s="15"/>
-      <c r="D839" s="16"/>
-      <c r="E839" s="16"/>
-      <c r="F839" s="16"/>
-      <c r="G839" s="16"/>
-      <c r="H839" s="16"/>
-      <c r="I839" s="16"/>
-      <c r="J839" s="16"/>
-      <c r="K839" s="16"/>
-      <c r="L839" s="16"/>
-      <c r="M839" s="16"/>
-      <c r="N839" s="16"/>
-      <c r="O839" s="16"/>
-      <c r="P839" s="16"/>
-      <c r="Q839" s="16"/>
-      <c r="R839" s="16"/>
-      <c r="S839" s="16"/>
-      <c r="T839" s="16"/>
-      <c r="U839" s="16"/>
-      <c r="V839" s="16"/>
-      <c r="W839" s="16"/>
-      <c r="X839" s="16"/>
-      <c r="Y839" s="16"/>
-      <c r="Z839" s="16"/>
-    </row>
-    <row r="840" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A840" s="15"/>
-      <c r="B840" s="15"/>
-      <c r="C840" s="15"/>
-      <c r="D840" s="16"/>
-      <c r="E840" s="16"/>
-      <c r="F840" s="16"/>
-      <c r="G840" s="16"/>
-      <c r="H840" s="16"/>
-      <c r="I840" s="16"/>
-      <c r="J840" s="16"/>
-      <c r="K840" s="16"/>
-      <c r="L840" s="16"/>
-      <c r="M840" s="16"/>
-      <c r="N840" s="16"/>
-      <c r="O840" s="16"/>
-      <c r="P840" s="16"/>
-      <c r="Q840" s="16"/>
-      <c r="R840" s="16"/>
-      <c r="S840" s="16"/>
-      <c r="T840" s="16"/>
-      <c r="U840" s="16"/>
-      <c r="V840" s="16"/>
-      <c r="W840" s="16"/>
-      <c r="X840" s="16"/>
-      <c r="Y840" s="16"/>
-      <c r="Z840" s="16"/>
-    </row>
-    <row r="841" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A841" s="15"/>
-      <c r="B841" s="15"/>
-      <c r="C841" s="15"/>
-      <c r="D841" s="16"/>
-      <c r="E841" s="16"/>
-      <c r="F841" s="16"/>
-      <c r="G841" s="16"/>
-      <c r="H841" s="16"/>
-      <c r="I841" s="16"/>
-      <c r="J841" s="16"/>
-      <c r="K841" s="16"/>
-      <c r="L841" s="16"/>
-      <c r="M841" s="16"/>
-      <c r="N841" s="16"/>
-      <c r="O841" s="16"/>
-      <c r="P841" s="16"/>
-      <c r="Q841" s="16"/>
-      <c r="R841" s="16"/>
-      <c r="S841" s="16"/>
-      <c r="T841" s="16"/>
-      <c r="U841" s="16"/>
-      <c r="V841" s="16"/>
-      <c r="W841" s="16"/>
-      <c r="X841" s="16"/>
-      <c r="Y841" s="16"/>
-      <c r="Z841" s="16"/>
-    </row>
-    <row r="842" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A842" s="15"/>
-      <c r="B842" s="15"/>
-      <c r="C842" s="15"/>
-      <c r="D842" s="16"/>
-      <c r="E842" s="16"/>
-      <c r="F842" s="16"/>
-      <c r="G842" s="16"/>
-      <c r="H842" s="16"/>
-      <c r="I842" s="16"/>
-      <c r="J842" s="16"/>
-      <c r="K842" s="16"/>
-      <c r="L842" s="16"/>
-      <c r="M842" s="16"/>
-      <c r="N842" s="16"/>
-      <c r="O842" s="16"/>
-      <c r="P842" s="16"/>
-      <c r="Q842" s="16"/>
-      <c r="R842" s="16"/>
-      <c r="S842" s="16"/>
-      <c r="T842" s="16"/>
-      <c r="U842" s="16"/>
-      <c r="V842" s="16"/>
-      <c r="W842" s="16"/>
-      <c r="X842" s="16"/>
-      <c r="Y842" s="16"/>
-      <c r="Z842" s="16"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>

--- a/data-raw/metadata/camp_environmental_metadata.xlsx
+++ b/data-raw/metadata/camp_environmental_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70206C4-F2C5-F042-9C70-E0D317B9CEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CB2BA-CF68-7C45-8089-AB5FA9129DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -241,9 +241,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>see unit column</t>
-  </si>
-  <si>
     <t>2006-10-02 02:30:00</t>
   </si>
   <si>
@@ -253,57 +250,23 @@
     <t>Knights Landing RST Program</t>
   </si>
   <si>
-    <t>dischargeUnit</t>
-  </si>
-  <si>
     <t>dischargeSampleGear</t>
-  </si>
-  <si>
-    <t>waterVelUnit</t>
   </si>
   <si>
     <t>waterVelSampleGear</t>
   </si>
   <si>
-    <t>waterTempUnit</t>
-  </si>
-  <si>
     <t>waterTempSampleGear</t>
-  </si>
-  <si>
-    <t>lightPenetrationUnit</t>
   </si>
   <si>
     <t>lightPenetrationSampleGear</t>
   </si>
   <si>
-    <t>turbidityUnit</t>
-  </si>
-  <si>
     <t>turbiditySampleGear</t>
-  </si>
-  <si>
-    <t>Unit of measure. Levels = c("cubic feet/second (cfs)", NA, "Not recorded", "centimeter (cm)", 
-"nephelometric turbidity units (NTU)", "feet/second (ft/sec)", 
-"cubic meters/second (m3/sec)")</t>
   </si>
   <si>
     <t>The sample gear used. Levels = c("Gauging station (non-USGS)", NA, "Electronic meter", "Electronic depth finder", 
 "Not recorded")</t>
-  </si>
-  <si>
-    <t>Unit of measure. Levels = c("feet/second (ft/sec)", NA, "Not recorded", "cubic feet/second (cfs)", 
-"meters/second (m/sec)", "meter (m)")</t>
-  </si>
-  <si>
-    <t>Unit of measure. Levels = c(NA, "Not recorded", "feet/second (ft/sec)", "C")</t>
-  </si>
-  <si>
-    <t>Unit of measure. Levels = c(NA, "Not recorded", "percent (%)", "centimeter (cm)")</t>
-  </si>
-  <si>
-    <t>Unit of measure. Levels = c("nephelometric turbidity units (NTU)", NA, "Not recorded", 
-"meters/second (m/sec)")</t>
   </si>
   <si>
     <t>The sample gear used. Levels = c("Electronic meter", NA, "Not recorded", "Electronic depth finder"
@@ -335,6 +298,21 @@
   </si>
   <si>
     <t>visitType</t>
+  </si>
+  <si>
+    <t>cubicFeetPerSecond</t>
+  </si>
+  <si>
+    <t>metersPerSecond</t>
+  </si>
+  <si>
+    <t>celsius</t>
+  </si>
+  <si>
+    <t>Nephelometric Turbidity Units (NTU)</t>
+  </si>
+  <si>
+    <t>centimeter</t>
   </si>
 </sst>
 </file>
@@ -670,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z947"/>
+  <dimension ref="A1:Z942"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -881,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>28</v>
@@ -929,7 +907,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>28</v>
@@ -977,7 +955,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
@@ -1025,7 +1003,7 @@
         <v>26</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>28</v>
@@ -1073,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
@@ -1126,10 +1104,10 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1170,10 +1148,10 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1229,10 +1207,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -1267,10 +1245,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -1305,10 +1283,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>15</v>
@@ -1343,10 +1321,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>15</v>
@@ -1381,10 +1359,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>15</v>
@@ -1419,10 +1397,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>15</v>
@@ -1456,8 +1434,8 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>76</v>
+      <c r="A19" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>86</v>
@@ -1465,7 +1443,7 @@
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1494,21 +1472,11 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1532,21 +1500,11 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1570,21 +1528,11 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1608,21 +1556,11 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1646,21 +1584,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -27387,158 +27315,18 @@
       <c r="Y942" s="1"/>
       <c r="Z942" s="1"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A943" s="1"/>
-      <c r="B943" s="1"/>
-      <c r="C943" s="1"/>
-      <c r="D943" s="2"/>
-      <c r="E943" s="1"/>
-      <c r="F943" s="3"/>
-      <c r="G943" s="3"/>
-      <c r="H943" s="3"/>
-      <c r="I943" s="2"/>
-      <c r="J943" s="3"/>
-      <c r="K943" s="2"/>
-      <c r="L943" s="3"/>
-      <c r="M943" s="3"/>
-      <c r="N943" s="1"/>
-      <c r="O943" s="1"/>
-      <c r="P943" s="1"/>
-      <c r="Q943" s="1"/>
-      <c r="R943" s="1"/>
-      <c r="S943" s="1"/>
-      <c r="T943" s="1"/>
-      <c r="U943" s="1"/>
-      <c r="V943" s="1"/>
-      <c r="W943" s="1"/>
-      <c r="X943" s="1"/>
-      <c r="Y943" s="1"/>
-      <c r="Z943" s="1"/>
-    </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A944" s="1"/>
-      <c r="B944" s="1"/>
-      <c r="C944" s="1"/>
-      <c r="D944" s="2"/>
-      <c r="E944" s="1"/>
-      <c r="F944" s="3"/>
-      <c r="G944" s="3"/>
-      <c r="H944" s="3"/>
-      <c r="I944" s="2"/>
-      <c r="J944" s="3"/>
-      <c r="K944" s="2"/>
-      <c r="L944" s="3"/>
-      <c r="M944" s="3"/>
-      <c r="N944" s="1"/>
-      <c r="O944" s="1"/>
-      <c r="P944" s="1"/>
-      <c r="Q944" s="1"/>
-      <c r="R944" s="1"/>
-      <c r="S944" s="1"/>
-      <c r="T944" s="1"/>
-      <c r="U944" s="1"/>
-      <c r="V944" s="1"/>
-      <c r="W944" s="1"/>
-      <c r="X944" s="1"/>
-      <c r="Y944" s="1"/>
-      <c r="Z944" s="1"/>
-    </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A945" s="1"/>
-      <c r="B945" s="1"/>
-      <c r="C945" s="1"/>
-      <c r="D945" s="2"/>
-      <c r="E945" s="1"/>
-      <c r="F945" s="3"/>
-      <c r="G945" s="3"/>
-      <c r="H945" s="3"/>
-      <c r="I945" s="2"/>
-      <c r="J945" s="3"/>
-      <c r="K945" s="2"/>
-      <c r="L945" s="3"/>
-      <c r="M945" s="3"/>
-      <c r="N945" s="1"/>
-      <c r="O945" s="1"/>
-      <c r="P945" s="1"/>
-      <c r="Q945" s="1"/>
-      <c r="R945" s="1"/>
-      <c r="S945" s="1"/>
-      <c r="T945" s="1"/>
-      <c r="U945" s="1"/>
-      <c r="V945" s="1"/>
-      <c r="W945" s="1"/>
-      <c r="X945" s="1"/>
-      <c r="Y945" s="1"/>
-      <c r="Z945" s="1"/>
-    </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A946" s="1"/>
-      <c r="B946" s="1"/>
-      <c r="C946" s="1"/>
-      <c r="D946" s="2"/>
-      <c r="E946" s="1"/>
-      <c r="F946" s="3"/>
-      <c r="G946" s="3"/>
-      <c r="H946" s="3"/>
-      <c r="I946" s="2"/>
-      <c r="J946" s="3"/>
-      <c r="K946" s="2"/>
-      <c r="L946" s="3"/>
-      <c r="M946" s="3"/>
-      <c r="N946" s="1"/>
-      <c r="O946" s="1"/>
-      <c r="P946" s="1"/>
-      <c r="Q946" s="1"/>
-      <c r="R946" s="1"/>
-      <c r="S946" s="1"/>
-      <c r="T946" s="1"/>
-      <c r="U946" s="1"/>
-      <c r="V946" s="1"/>
-      <c r="W946" s="1"/>
-      <c r="X946" s="1"/>
-      <c r="Y946" s="1"/>
-      <c r="Z946" s="1"/>
-    </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A947" s="1"/>
-      <c r="B947" s="1"/>
-      <c r="C947" s="1"/>
-      <c r="D947" s="2"/>
-      <c r="E947" s="1"/>
-      <c r="F947" s="3"/>
-      <c r="G947" s="3"/>
-      <c r="H947" s="3"/>
-      <c r="I947" s="2"/>
-      <c r="J947" s="3"/>
-      <c r="K947" s="2"/>
-      <c r="L947" s="3"/>
-      <c r="M947" s="3"/>
-      <c r="N947" s="1"/>
-      <c r="O947" s="1"/>
-      <c r="P947" s="1"/>
-      <c r="Q947" s="1"/>
-      <c r="R947" s="1"/>
-      <c r="S947" s="1"/>
-      <c r="T947" s="1"/>
-      <c r="U947" s="1"/>
-      <c r="V947" s="1"/>
-      <c r="W947" s="1"/>
-      <c r="X947" s="1"/>
-      <c r="Y947" s="1"/>
-      <c r="Z947" s="1"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E947" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E942" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F947" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F942" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C947" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C942" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H947" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H942" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27602,7 +27390,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
